--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.992735929230967</v>
+        <v>0.9927359292309664</v>
       </c>
       <c r="D2">
-        <v>1.012026113362962</v>
+        <v>1.012026113362961</v>
       </c>
       <c r="E2">
-        <v>0.9744953528102067</v>
+        <v>0.9744953528102064</v>
       </c>
       <c r="F2">
-        <v>0.9929254939215364</v>
+        <v>0.992925493921536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041637834058229</v>
+        <v>1.041637834058228</v>
       </c>
       <c r="J2">
         <v>1.015136099630791</v>
       </c>
       <c r="K2">
-        <v>1.023320409729249</v>
+        <v>1.023320409729248</v>
       </c>
       <c r="L2">
-        <v>0.9863218270221492</v>
+        <v>0.986321827022149</v>
       </c>
       <c r="M2">
         <v>1.004484275732206</v>
@@ -462,13 +462,13 @@
         <v>1.000111847927299</v>
       </c>
       <c r="D3">
-        <v>1.017821952379756</v>
+        <v>1.017821952379757</v>
       </c>
       <c r="E3">
-        <v>0.9804060349964546</v>
+        <v>0.9804060349964553</v>
       </c>
       <c r="F3">
-        <v>1.000304592142509</v>
+        <v>1.00030459214251</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.020599464319773</v>
       </c>
       <c r="K3">
-        <v>1.028231765366394</v>
+        <v>1.028231765366395</v>
       </c>
       <c r="L3">
-        <v>0.9912959190516059</v>
+        <v>0.9912959190516064</v>
       </c>
       <c r="M3">
-        <v>1.010933577138303</v>
+        <v>1.010933577138304</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004733947272742</v>
+        <v>1.004733947272743</v>
       </c>
       <c r="D4">
-        <v>1.021455765416556</v>
+        <v>1.021455765416557</v>
       </c>
       <c r="E4">
-        <v>0.9841287069155905</v>
+        <v>0.9841287069155908</v>
       </c>
       <c r="F4">
-        <v>1.004940644897505</v>
+        <v>1.004940644897506</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.045951896609689</v>
       </c>
       <c r="J4">
-        <v>1.024017328519501</v>
+        <v>1.024017328519502</v>
       </c>
       <c r="K4">
         <v>1.031301955231541</v>
       </c>
       <c r="L4">
-        <v>0.9944225355276445</v>
+        <v>0.994422535527645</v>
       </c>
       <c r="M4">
         <v>1.014979804190954</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006643058244988</v>
+        <v>1.006643058244989</v>
       </c>
       <c r="D5">
-        <v>1.022957011858302</v>
+        <v>1.022957011858303</v>
       </c>
       <c r="E5">
-        <v>0.9856706454008064</v>
+        <v>0.9856706454008066</v>
       </c>
       <c r="F5">
-        <v>1.006858315584588</v>
+        <v>1.006858315584589</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046630683113038</v>
+        <v>1.046630683113039</v>
       </c>
       <c r="J5">
-        <v>1.025427600491416</v>
+        <v>1.025427600491417</v>
       </c>
       <c r="K5">
-        <v>1.032568183709439</v>
+        <v>1.03256818370944</v>
       </c>
       <c r="L5">
-        <v>0.9957161166064833</v>
+        <v>0.9957161166064834</v>
       </c>
       <c r="M5">
-        <v>1.016652123904755</v>
+        <v>1.016652123904756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,7 +579,7 @@
         <v>1.023207569767527</v>
       </c>
       <c r="E6">
-        <v>0.9859282273487555</v>
+        <v>0.9859282273487557</v>
       </c>
       <c r="F6">
         <v>1.007178515762287</v>
@@ -597,10 +597,10 @@
         <v>1.032779389980541</v>
       </c>
       <c r="L6">
-        <v>0.9959321241186008</v>
+        <v>0.995932124118601</v>
       </c>
       <c r="M6">
-        <v>1.016931275769091</v>
+        <v>1.016931275769092</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.004759588017755</v>
       </c>
       <c r="D7">
-        <v>1.021475927051476</v>
+        <v>1.021475927051477</v>
       </c>
       <c r="E7">
-        <v>0.9841493993535526</v>
+        <v>0.9841493993535529</v>
       </c>
       <c r="F7">
         <v>1.004966389624699</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045961028179936</v>
+        <v>1.045961028179937</v>
       </c>
       <c r="J7">
         <v>1.024036275287904</v>
@@ -635,7 +635,7 @@
         <v>1.031318969157444</v>
       </c>
       <c r="L7">
-        <v>0.9944399008708226</v>
+        <v>0.9944399008708227</v>
       </c>
       <c r="M7">
         <v>1.015002260536776</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952611256973851</v>
+        <v>0.9952611256973849</v>
       </c>
       <c r="D8">
         <v>1.014009893459336</v>
       </c>
       <c r="E8">
-        <v>0.9765148381972275</v>
+        <v>0.9765148381972268</v>
       </c>
       <c r="F8">
-        <v>0.9954492033292884</v>
+        <v>0.9954492033292877</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042552245022053</v>
+        <v>1.042552245022052</v>
       </c>
       <c r="J8">
         <v>1.017007691404137</v>
       </c>
       <c r="K8">
-        <v>1.025003377845754</v>
+        <v>1.025003377845753</v>
       </c>
       <c r="L8">
-        <v>0.9880226171626156</v>
+        <v>0.988022617162615</v>
       </c>
       <c r="M8">
-        <v>1.00669117296772</v>
+        <v>1.006691172967719</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772680321401095</v>
+        <v>0.9772680321401089</v>
       </c>
       <c r="D9">
-        <v>0.9998878479107804</v>
+        <v>0.99988784791078</v>
       </c>
       <c r="E9">
-        <v>0.9622149323868034</v>
+        <v>0.9622149323868033</v>
       </c>
       <c r="F9">
-        <v>0.9775221928256683</v>
+        <v>0.9775221928256678</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035973062711708</v>
       </c>
       <c r="J9">
-        <v>1.003649866458191</v>
+        <v>1.00364986645819</v>
       </c>
       <c r="K9">
-        <v>1.012982744966437</v>
+        <v>1.012982744966436</v>
       </c>
       <c r="L9">
-        <v>0.9759523133173734</v>
+        <v>0.9759523133173731</v>
       </c>
       <c r="M9">
-        <v>0.990990797574777</v>
+        <v>0.9909907975747767</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642663781193762</v>
+        <v>0.9642663781193781</v>
       </c>
       <c r="D10">
-        <v>0.9897068710820917</v>
+        <v>0.9897068710820938</v>
       </c>
       <c r="E10">
-        <v>0.9520082615607396</v>
+        <v>0.9520082615607404</v>
       </c>
       <c r="F10">
-        <v>0.9646443093451268</v>
+        <v>0.9646443093451287</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0311410606596</v>
+        <v>1.031141060659601</v>
       </c>
       <c r="J10">
-        <v>0.9939731591755762</v>
+        <v>0.9939731591755782</v>
       </c>
       <c r="K10">
-        <v>1.004264491814152</v>
+        <v>1.004264491814154</v>
       </c>
       <c r="L10">
-        <v>0.9673016769412477</v>
+        <v>0.9673016769412487</v>
       </c>
       <c r="M10">
-        <v>0.9796826756423062</v>
+        <v>0.9796826756423077</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9583548064741232</v>
+        <v>0.9583548064741224</v>
       </c>
       <c r="D11">
-        <v>0.9850857573660484</v>
+        <v>0.9850857573660476</v>
       </c>
       <c r="E11">
-        <v>0.9474016530739158</v>
+        <v>0.9474016530739152</v>
       </c>
       <c r="F11">
-        <v>0.9588088772477366</v>
+        <v>0.9588088772477356</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028926856899686</v>
       </c>
       <c r="J11">
-        <v>0.9895689046113284</v>
+        <v>0.9895689046113275</v>
       </c>
       <c r="K11">
-        <v>1.000294523931172</v>
+        <v>1.000294523931171</v>
       </c>
       <c r="L11">
-        <v>0.9633886789510159</v>
+        <v>0.9633886789510155</v>
       </c>
       <c r="M11">
-        <v>0.9745517754058166</v>
+        <v>0.9745517754058156</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9561123546480459</v>
+        <v>0.9561123546480494</v>
       </c>
       <c r="D12">
-        <v>0.9833342441539409</v>
+        <v>0.983334244153944</v>
       </c>
       <c r="E12">
-        <v>0.9456597544798818</v>
+        <v>0.9456597544798834</v>
       </c>
       <c r="F12">
-        <v>0.9565984708443057</v>
+        <v>0.9565984708443088</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028084480580875</v>
+        <v>1.028084480580876</v>
       </c>
       <c r="J12">
-        <v>0.9878976876435325</v>
+        <v>0.9878976876435356</v>
       </c>
       <c r="K12">
-        <v>0.9987878537113072</v>
+        <v>0.9987878537113103</v>
       </c>
       <c r="L12">
-        <v>0.9619077236310792</v>
+        <v>0.9619077236310808</v>
       </c>
       <c r="M12">
-        <v>0.9726072476041242</v>
+        <v>0.9726072476041271</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565955540938501</v>
+        <v>0.9565955540938484</v>
       </c>
       <c r="D13">
-        <v>0.9837115887222748</v>
+        <v>0.9837115887222736</v>
       </c>
       <c r="E13">
-        <v>0.9460348386323522</v>
+        <v>0.9460348386323515</v>
       </c>
       <c r="F13">
-        <v>0.9570746193555189</v>
+        <v>0.9570746193555177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02826610294948</v>
+        <v>1.028266102949479</v>
       </c>
       <c r="J13">
-        <v>0.9882578205137487</v>
+        <v>0.9882578205137471</v>
       </c>
       <c r="K13">
-        <v>0.9991125384544759</v>
+        <v>0.9991125384544745</v>
       </c>
       <c r="L13">
-        <v>0.9622266793098386</v>
+        <v>0.9622266793098383</v>
       </c>
       <c r="M13">
-        <v>0.9730261668743746</v>
+        <v>0.9730261668743736</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9581704230158229</v>
+        <v>0.9581704230158221</v>
       </c>
       <c r="D14">
-        <v>0.9849417105535383</v>
+        <v>0.9849417105535379</v>
       </c>
       <c r="E14">
-        <v>0.947258312368455</v>
+        <v>0.9472583123684549</v>
       </c>
       <c r="F14">
-        <v>0.9586270634825643</v>
+        <v>0.958627063482564</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028857642312326</v>
+        <v>1.028857642312325</v>
       </c>
       <c r="J14">
-        <v>0.9894315005186375</v>
+        <v>0.9894315005186368</v>
       </c>
       <c r="K14">
-        <v>1.000170653231665</v>
+        <v>1.000170653231664</v>
       </c>
       <c r="L14">
-        <v>0.9632668384393802</v>
+        <v>0.96326683843938</v>
       </c>
       <c r="M14">
-        <v>0.974391851024225</v>
+        <v>0.9743918510242247</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591344336726779</v>
+        <v>0.9591344336726778</v>
       </c>
       <c r="D15">
-        <v>0.9856948887596639</v>
+        <v>0.9856948887596638</v>
       </c>
       <c r="E15">
         <v>0.9480079669421283</v>
       </c>
       <c r="F15">
-        <v>0.9595777685959258</v>
+        <v>0.9595777685959254</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1.029219417461579</v>
       </c>
       <c r="J15">
-        <v>0.9901498682167019</v>
+        <v>0.9901498682167017</v>
       </c>
       <c r="K15">
         <v>1.000818256787613</v>
@@ -942,7 +942,7 @@
         <v>0.9639039952690378</v>
       </c>
       <c r="M15">
-        <v>0.9752280563344657</v>
+        <v>0.9752280563344654</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9646524198614508</v>
+        <v>0.964652419861451</v>
       </c>
       <c r="D16">
-        <v>0.990008825442477</v>
+        <v>0.9900088254424775</v>
       </c>
       <c r="E16">
-        <v>0.9523098238674871</v>
+        <v>0.952309823867487</v>
       </c>
       <c r="F16">
         <v>0.9650258036698843</v>
@@ -968,19 +968,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031285309355483</v>
+        <v>1.031285309355484</v>
       </c>
       <c r="J16">
-        <v>0.9942606874277439</v>
+        <v>0.9942606874277441</v>
       </c>
       <c r="K16">
         <v>1.004523631656659</v>
       </c>
       <c r="L16">
-        <v>0.967557651380579</v>
+        <v>0.9675576513805789</v>
       </c>
       <c r="M16">
-        <v>0.9800179727961158</v>
+        <v>0.980017972796116</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9680354192786168</v>
+        <v>0.9680354192786166</v>
       </c>
       <c r="D17">
-        <v>0.9926558622744399</v>
+        <v>0.9926558622744397</v>
       </c>
       <c r="E17">
-        <v>0.9549563907552756</v>
+        <v>0.9549563907552759</v>
       </c>
       <c r="F17">
         <v>0.9683712071422635</v>
@@ -1006,19 +1006,19 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032547482271034</v>
+        <v>1.032547482271033</v>
       </c>
       <c r="J17">
-        <v>0.9967798952355266</v>
+        <v>0.9967798952355262</v>
       </c>
       <c r="K17">
-        <v>1.006793897953915</v>
+        <v>1.006793897953914</v>
       </c>
       <c r="L17">
-        <v>0.9698031470444483</v>
+        <v>0.9698031470444485</v>
       </c>
       <c r="M17">
-        <v>0.982957501751381</v>
+        <v>0.9829575017513806</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9699817992968652</v>
+        <v>0.9699817992968648</v>
       </c>
       <c r="D18">
-        <v>0.9941795417307604</v>
+        <v>0.9941795417307596</v>
       </c>
       <c r="E18">
-        <v>0.9564822404449227</v>
+        <v>0.9564822404449225</v>
       </c>
       <c r="F18">
-        <v>0.9702978048658811</v>
+        <v>0.9702978048658805</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033272042838428</v>
       </c>
       <c r="J18">
-        <v>0.9982288726117338</v>
+        <v>0.9982288726117333</v>
       </c>
       <c r="K18">
         <v>1.008099505942781</v>
       </c>
       <c r="L18">
-        <v>0.9710969486834224</v>
+        <v>0.9710969486834222</v>
       </c>
       <c r="M18">
-        <v>0.9846497200111356</v>
+        <v>0.9846497200111349</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9706410284694096</v>
+        <v>0.9706410284694097</v>
       </c>
       <c r="D19">
-        <v>0.9946957216856058</v>
+        <v>0.9946957216856056</v>
       </c>
       <c r="E19">
-        <v>0.9569995646334247</v>
+        <v>0.9569995646334249</v>
       </c>
       <c r="F19">
-        <v>0.9709506425038766</v>
+        <v>0.970950642503877</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03351716956745</v>
       </c>
       <c r="J19">
-        <v>0.9987195578736257</v>
+        <v>0.9987195578736254</v>
       </c>
       <c r="K19">
         <v>1.00854160752761</v>
       </c>
       <c r="L19">
-        <v>0.971535461842688</v>
+        <v>0.9715354618426882</v>
       </c>
       <c r="M19">
-        <v>0.9852230278308461</v>
+        <v>0.9852230278308464</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676752635040056</v>
+        <v>0.9676752635040048</v>
       </c>
       <c r="D20">
-        <v>0.9923739800682185</v>
+        <v>0.9923739800682179</v>
       </c>
       <c r="E20">
-        <v>0.9546743036333236</v>
+        <v>0.9546743036333231</v>
       </c>
       <c r="F20">
-        <v>0.9680148604874803</v>
+        <v>0.9680148604874796</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.032413278312584</v>
       </c>
       <c r="J20">
-        <v>0.9965117427123753</v>
+        <v>0.9965117427123745</v>
       </c>
       <c r="K20">
-        <v>1.006552262511533</v>
+        <v>1.006552262511532</v>
       </c>
       <c r="L20">
-        <v>0.9695638933573306</v>
+        <v>0.9695638933573302</v>
       </c>
       <c r="M20">
-        <v>0.9826444543660874</v>
+        <v>0.9826444543660865</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577079882248977</v>
+        <v>0.9577079882248978</v>
       </c>
       <c r="D21">
-        <v>0.9845804640517639</v>
+        <v>0.984580464051764</v>
       </c>
       <c r="E21">
-        <v>0.9468989035270327</v>
+        <v>0.9468989035270328</v>
       </c>
       <c r="F21">
-        <v>0.9581711249831707</v>
+        <v>0.9581711249831705</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.028684012699434</v>
       </c>
       <c r="J21">
-        <v>0.9890868820527184</v>
+        <v>0.9890868820527186</v>
       </c>
       <c r="K21">
-        <v>0.9998599736230624</v>
+        <v>0.9998599736230626</v>
       </c>
       <c r="L21">
-        <v>0.9629613171138033</v>
+        <v>0.9629613171138034</v>
       </c>
       <c r="M21">
-        <v>0.9739907891910415</v>
+        <v>0.9739907891910413</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.951168770493017</v>
+        <v>0.9511687704930164</v>
       </c>
       <c r="D22">
-        <v>0.9794758696999529</v>
+        <v>0.9794758696999525</v>
       </c>
       <c r="E22">
-        <v>0.9418303927989055</v>
+        <v>0.9418303927989056</v>
       </c>
       <c r="F22">
-        <v>0.9517315951567993</v>
+        <v>0.9517315951567989</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.026223041400772</v>
       </c>
       <c r="J22">
-        <v>0.9842125793747416</v>
+        <v>0.9842125793747409</v>
       </c>
       <c r="K22">
-        <v>0.9954651808595517</v>
+        <v>0.9954651808595512</v>
       </c>
       <c r="L22">
-        <v>0.9586495246163573</v>
+        <v>0.9586495246163576</v>
       </c>
       <c r="M22">
         <v>0.9683239880711537</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9546627569289904</v>
+        <v>0.9546627569289888</v>
       </c>
       <c r="D23">
-        <v>0.9822024392718891</v>
+        <v>0.9822024392718877</v>
       </c>
       <c r="E23">
         <v>0.9445353489757934</v>
       </c>
       <c r="F23">
-        <v>0.9551705048453502</v>
+        <v>0.955170504845349</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.027539264136401</v>
       </c>
       <c r="J23">
-        <v>0.9868172213911807</v>
+        <v>0.9868172213911793</v>
       </c>
       <c r="K23">
-        <v>0.9978137063565781</v>
+        <v>0.9978137063565766</v>
       </c>
       <c r="L23">
         <v>0.9609513791970736</v>
       </c>
       <c r="M23">
-        <v>0.9713507687044507</v>
+        <v>0.9713507687044498</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678380851027001</v>
+        <v>0.9678380851026999</v>
       </c>
       <c r="D24">
         <v>0.9925014129858627</v>
       </c>
       <c r="E24">
-        <v>0.9548018216177656</v>
+        <v>0.9548018216177658</v>
       </c>
       <c r="F24">
-        <v>0.9681759543026719</v>
+        <v>0.9681759543026714</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.032473955167687</v>
       </c>
       <c r="J24">
-        <v>0.9966329722123403</v>
+        <v>0.9966329722123399</v>
       </c>
       <c r="K24">
         <v>1.006661504441576</v>
       </c>
       <c r="L24">
-        <v>0.9696720509395744</v>
+        <v>0.9696720509395745</v>
       </c>
       <c r="M24">
-        <v>0.982785975844894</v>
+        <v>0.9827859758448935</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820839564880535</v>
+        <v>0.9820839564880532</v>
       </c>
       <c r="D25">
         <v>1.003664387056953</v>
       </c>
       <c r="E25">
-        <v>0.966022144849783</v>
+        <v>0.9660221448497825</v>
       </c>
       <c r="F25">
-        <v>0.9823080633168136</v>
+        <v>0.9823080633168133</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.016206083225985</v>
       </c>
       <c r="L25">
-        <v>0.9791718655560607</v>
+        <v>0.9791718655560604</v>
       </c>
       <c r="M25">
-        <v>0.9951873763486976</v>
+        <v>0.9951873763486974</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927359292309664</v>
+        <v>0.992735929230967</v>
       </c>
       <c r="D2">
-        <v>1.012026113362961</v>
+        <v>1.012026113362962</v>
       </c>
       <c r="E2">
-        <v>0.9744953528102064</v>
+        <v>0.9744953528102067</v>
       </c>
       <c r="F2">
-        <v>0.992925493921536</v>
+        <v>0.9929254939215364</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041637834058228</v>
+        <v>1.041637834058229</v>
       </c>
       <c r="J2">
         <v>1.015136099630791</v>
       </c>
       <c r="K2">
-        <v>1.023320409729248</v>
+        <v>1.023320409729249</v>
       </c>
       <c r="L2">
-        <v>0.986321827022149</v>
+        <v>0.9863218270221492</v>
       </c>
       <c r="M2">
         <v>1.004484275732206</v>
@@ -462,13 +462,13 @@
         <v>1.000111847927299</v>
       </c>
       <c r="D3">
-        <v>1.017821952379757</v>
+        <v>1.017821952379756</v>
       </c>
       <c r="E3">
-        <v>0.9804060349964553</v>
+        <v>0.9804060349964546</v>
       </c>
       <c r="F3">
-        <v>1.00030459214251</v>
+        <v>1.000304592142509</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.020599464319773</v>
       </c>
       <c r="K3">
-        <v>1.028231765366395</v>
+        <v>1.028231765366394</v>
       </c>
       <c r="L3">
-        <v>0.9912959190516064</v>
+        <v>0.9912959190516059</v>
       </c>
       <c r="M3">
-        <v>1.010933577138304</v>
+        <v>1.010933577138303</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004733947272743</v>
+        <v>1.004733947272742</v>
       </c>
       <c r="D4">
-        <v>1.021455765416557</v>
+        <v>1.021455765416556</v>
       </c>
       <c r="E4">
-        <v>0.9841287069155908</v>
+        <v>0.9841287069155905</v>
       </c>
       <c r="F4">
-        <v>1.004940644897506</v>
+        <v>1.004940644897505</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.045951896609689</v>
       </c>
       <c r="J4">
-        <v>1.024017328519502</v>
+        <v>1.024017328519501</v>
       </c>
       <c r="K4">
         <v>1.031301955231541</v>
       </c>
       <c r="L4">
-        <v>0.994422535527645</v>
+        <v>0.9944225355276445</v>
       </c>
       <c r="M4">
         <v>1.014979804190954</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006643058244989</v>
+        <v>1.006643058244988</v>
       </c>
       <c r="D5">
-        <v>1.022957011858303</v>
+        <v>1.022957011858302</v>
       </c>
       <c r="E5">
-        <v>0.9856706454008066</v>
+        <v>0.9856706454008064</v>
       </c>
       <c r="F5">
-        <v>1.006858315584589</v>
+        <v>1.006858315584588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046630683113039</v>
+        <v>1.046630683113038</v>
       </c>
       <c r="J5">
-        <v>1.025427600491417</v>
+        <v>1.025427600491416</v>
       </c>
       <c r="K5">
-        <v>1.03256818370944</v>
+        <v>1.032568183709439</v>
       </c>
       <c r="L5">
-        <v>0.9957161166064834</v>
+        <v>0.9957161166064833</v>
       </c>
       <c r="M5">
-        <v>1.016652123904756</v>
+        <v>1.016652123904755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,7 +579,7 @@
         <v>1.023207569767527</v>
       </c>
       <c r="E6">
-        <v>0.9859282273487557</v>
+        <v>0.9859282273487555</v>
       </c>
       <c r="F6">
         <v>1.007178515762287</v>
@@ -597,10 +597,10 @@
         <v>1.032779389980541</v>
       </c>
       <c r="L6">
-        <v>0.995932124118601</v>
+        <v>0.9959321241186008</v>
       </c>
       <c r="M6">
-        <v>1.016931275769092</v>
+        <v>1.016931275769091</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.004759588017755</v>
       </c>
       <c r="D7">
-        <v>1.021475927051477</v>
+        <v>1.021475927051476</v>
       </c>
       <c r="E7">
-        <v>0.9841493993535529</v>
+        <v>0.9841493993535526</v>
       </c>
       <c r="F7">
         <v>1.004966389624699</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045961028179937</v>
+        <v>1.045961028179936</v>
       </c>
       <c r="J7">
         <v>1.024036275287904</v>
@@ -635,7 +635,7 @@
         <v>1.031318969157444</v>
       </c>
       <c r="L7">
-        <v>0.9944399008708227</v>
+        <v>0.9944399008708226</v>
       </c>
       <c r="M7">
         <v>1.015002260536776</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952611256973849</v>
+        <v>0.9952611256973851</v>
       </c>
       <c r="D8">
         <v>1.014009893459336</v>
       </c>
       <c r="E8">
-        <v>0.9765148381972268</v>
+        <v>0.9765148381972275</v>
       </c>
       <c r="F8">
-        <v>0.9954492033292877</v>
+        <v>0.9954492033292884</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042552245022052</v>
+        <v>1.042552245022053</v>
       </c>
       <c r="J8">
         <v>1.017007691404137</v>
       </c>
       <c r="K8">
-        <v>1.025003377845753</v>
+        <v>1.025003377845754</v>
       </c>
       <c r="L8">
-        <v>0.988022617162615</v>
+        <v>0.9880226171626156</v>
       </c>
       <c r="M8">
-        <v>1.006691172967719</v>
+        <v>1.00669117296772</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772680321401089</v>
+        <v>0.9772680321401095</v>
       </c>
       <c r="D9">
-        <v>0.99988784791078</v>
+        <v>0.9998878479107804</v>
       </c>
       <c r="E9">
-        <v>0.9622149323868033</v>
+        <v>0.9622149323868034</v>
       </c>
       <c r="F9">
-        <v>0.9775221928256678</v>
+        <v>0.9775221928256683</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035973062711708</v>
       </c>
       <c r="J9">
-        <v>1.00364986645819</v>
+        <v>1.003649866458191</v>
       </c>
       <c r="K9">
-        <v>1.012982744966436</v>
+        <v>1.012982744966437</v>
       </c>
       <c r="L9">
-        <v>0.9759523133173731</v>
+        <v>0.9759523133173734</v>
       </c>
       <c r="M9">
-        <v>0.9909907975747767</v>
+        <v>0.990990797574777</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642663781193781</v>
+        <v>0.9642663781193762</v>
       </c>
       <c r="D10">
-        <v>0.9897068710820938</v>
+        <v>0.9897068710820917</v>
       </c>
       <c r="E10">
-        <v>0.9520082615607404</v>
+        <v>0.9520082615607396</v>
       </c>
       <c r="F10">
-        <v>0.9646443093451287</v>
+        <v>0.9646443093451268</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031141060659601</v>
+        <v>1.0311410606596</v>
       </c>
       <c r="J10">
-        <v>0.9939731591755782</v>
+        <v>0.9939731591755762</v>
       </c>
       <c r="K10">
-        <v>1.004264491814154</v>
+        <v>1.004264491814152</v>
       </c>
       <c r="L10">
-        <v>0.9673016769412487</v>
+        <v>0.9673016769412477</v>
       </c>
       <c r="M10">
-        <v>0.9796826756423077</v>
+        <v>0.9796826756423062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9583548064741224</v>
+        <v>0.9583548064741232</v>
       </c>
       <c r="D11">
-        <v>0.9850857573660476</v>
+        <v>0.9850857573660484</v>
       </c>
       <c r="E11">
-        <v>0.9474016530739152</v>
+        <v>0.9474016530739158</v>
       </c>
       <c r="F11">
-        <v>0.9588088772477356</v>
+        <v>0.9588088772477366</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028926856899686</v>
       </c>
       <c r="J11">
-        <v>0.9895689046113275</v>
+        <v>0.9895689046113284</v>
       </c>
       <c r="K11">
-        <v>1.000294523931171</v>
+        <v>1.000294523931172</v>
       </c>
       <c r="L11">
-        <v>0.9633886789510155</v>
+        <v>0.9633886789510159</v>
       </c>
       <c r="M11">
-        <v>0.9745517754058156</v>
+        <v>0.9745517754058166</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9561123546480494</v>
+        <v>0.9561123546480459</v>
       </c>
       <c r="D12">
-        <v>0.983334244153944</v>
+        <v>0.9833342441539409</v>
       </c>
       <c r="E12">
-        <v>0.9456597544798834</v>
+        <v>0.9456597544798818</v>
       </c>
       <c r="F12">
-        <v>0.9565984708443088</v>
+        <v>0.9565984708443057</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028084480580876</v>
+        <v>1.028084480580875</v>
       </c>
       <c r="J12">
-        <v>0.9878976876435356</v>
+        <v>0.9878976876435325</v>
       </c>
       <c r="K12">
-        <v>0.9987878537113103</v>
+        <v>0.9987878537113072</v>
       </c>
       <c r="L12">
-        <v>0.9619077236310808</v>
+        <v>0.9619077236310792</v>
       </c>
       <c r="M12">
-        <v>0.9726072476041271</v>
+        <v>0.9726072476041242</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565955540938484</v>
+        <v>0.9565955540938501</v>
       </c>
       <c r="D13">
-        <v>0.9837115887222736</v>
+        <v>0.9837115887222748</v>
       </c>
       <c r="E13">
-        <v>0.9460348386323515</v>
+        <v>0.9460348386323522</v>
       </c>
       <c r="F13">
-        <v>0.9570746193555177</v>
+        <v>0.9570746193555189</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028266102949479</v>
+        <v>1.02826610294948</v>
       </c>
       <c r="J13">
-        <v>0.9882578205137471</v>
+        <v>0.9882578205137487</v>
       </c>
       <c r="K13">
-        <v>0.9991125384544745</v>
+        <v>0.9991125384544759</v>
       </c>
       <c r="L13">
-        <v>0.9622266793098383</v>
+        <v>0.9622266793098386</v>
       </c>
       <c r="M13">
-        <v>0.9730261668743736</v>
+        <v>0.9730261668743746</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9581704230158221</v>
+        <v>0.9581704230158229</v>
       </c>
       <c r="D14">
-        <v>0.9849417105535379</v>
+        <v>0.9849417105535383</v>
       </c>
       <c r="E14">
-        <v>0.9472583123684549</v>
+        <v>0.947258312368455</v>
       </c>
       <c r="F14">
-        <v>0.958627063482564</v>
+        <v>0.9586270634825643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028857642312325</v>
+        <v>1.028857642312326</v>
       </c>
       <c r="J14">
-        <v>0.9894315005186368</v>
+        <v>0.9894315005186375</v>
       </c>
       <c r="K14">
-        <v>1.000170653231664</v>
+        <v>1.000170653231665</v>
       </c>
       <c r="L14">
-        <v>0.96326683843938</v>
+        <v>0.9632668384393802</v>
       </c>
       <c r="M14">
-        <v>0.9743918510242247</v>
+        <v>0.974391851024225</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591344336726778</v>
+        <v>0.9591344336726779</v>
       </c>
       <c r="D15">
-        <v>0.9856948887596638</v>
+        <v>0.9856948887596639</v>
       </c>
       <c r="E15">
         <v>0.9480079669421283</v>
       </c>
       <c r="F15">
-        <v>0.9595777685959254</v>
+        <v>0.9595777685959258</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1.029219417461579</v>
       </c>
       <c r="J15">
-        <v>0.9901498682167017</v>
+        <v>0.9901498682167019</v>
       </c>
       <c r="K15">
         <v>1.000818256787613</v>
@@ -942,7 +942,7 @@
         <v>0.9639039952690378</v>
       </c>
       <c r="M15">
-        <v>0.9752280563344654</v>
+        <v>0.9752280563344657</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.964652419861451</v>
+        <v>0.9646524198614508</v>
       </c>
       <c r="D16">
-        <v>0.9900088254424775</v>
+        <v>0.990008825442477</v>
       </c>
       <c r="E16">
-        <v>0.952309823867487</v>
+        <v>0.9523098238674871</v>
       </c>
       <c r="F16">
         <v>0.9650258036698843</v>
@@ -968,19 +968,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031285309355484</v>
+        <v>1.031285309355483</v>
       </c>
       <c r="J16">
-        <v>0.9942606874277441</v>
+        <v>0.9942606874277439</v>
       </c>
       <c r="K16">
         <v>1.004523631656659</v>
       </c>
       <c r="L16">
-        <v>0.9675576513805789</v>
+        <v>0.967557651380579</v>
       </c>
       <c r="M16">
-        <v>0.980017972796116</v>
+        <v>0.9800179727961158</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9680354192786166</v>
+        <v>0.9680354192786168</v>
       </c>
       <c r="D17">
-        <v>0.9926558622744397</v>
+        <v>0.9926558622744399</v>
       </c>
       <c r="E17">
-        <v>0.9549563907552759</v>
+        <v>0.9549563907552756</v>
       </c>
       <c r="F17">
         <v>0.9683712071422635</v>
@@ -1006,19 +1006,19 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032547482271033</v>
+        <v>1.032547482271034</v>
       </c>
       <c r="J17">
-        <v>0.9967798952355262</v>
+        <v>0.9967798952355266</v>
       </c>
       <c r="K17">
-        <v>1.006793897953914</v>
+        <v>1.006793897953915</v>
       </c>
       <c r="L17">
-        <v>0.9698031470444485</v>
+        <v>0.9698031470444483</v>
       </c>
       <c r="M17">
-        <v>0.9829575017513806</v>
+        <v>0.982957501751381</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9699817992968648</v>
+        <v>0.9699817992968652</v>
       </c>
       <c r="D18">
-        <v>0.9941795417307596</v>
+        <v>0.9941795417307604</v>
       </c>
       <c r="E18">
-        <v>0.9564822404449225</v>
+        <v>0.9564822404449227</v>
       </c>
       <c r="F18">
-        <v>0.9702978048658805</v>
+        <v>0.9702978048658811</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033272042838428</v>
       </c>
       <c r="J18">
-        <v>0.9982288726117333</v>
+        <v>0.9982288726117338</v>
       </c>
       <c r="K18">
         <v>1.008099505942781</v>
       </c>
       <c r="L18">
-        <v>0.9710969486834222</v>
+        <v>0.9710969486834224</v>
       </c>
       <c r="M18">
-        <v>0.9846497200111349</v>
+        <v>0.9846497200111356</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9706410284694097</v>
+        <v>0.9706410284694096</v>
       </c>
       <c r="D19">
-        <v>0.9946957216856056</v>
+        <v>0.9946957216856058</v>
       </c>
       <c r="E19">
-        <v>0.9569995646334249</v>
+        <v>0.9569995646334247</v>
       </c>
       <c r="F19">
-        <v>0.970950642503877</v>
+        <v>0.9709506425038766</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03351716956745</v>
       </c>
       <c r="J19">
-        <v>0.9987195578736254</v>
+        <v>0.9987195578736257</v>
       </c>
       <c r="K19">
         <v>1.00854160752761</v>
       </c>
       <c r="L19">
-        <v>0.9715354618426882</v>
+        <v>0.971535461842688</v>
       </c>
       <c r="M19">
-        <v>0.9852230278308464</v>
+        <v>0.9852230278308461</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676752635040048</v>
+        <v>0.9676752635040056</v>
       </c>
       <c r="D20">
-        <v>0.9923739800682179</v>
+        <v>0.9923739800682185</v>
       </c>
       <c r="E20">
-        <v>0.9546743036333231</v>
+        <v>0.9546743036333236</v>
       </c>
       <c r="F20">
-        <v>0.9680148604874796</v>
+        <v>0.9680148604874803</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.032413278312584</v>
       </c>
       <c r="J20">
-        <v>0.9965117427123745</v>
+        <v>0.9965117427123753</v>
       </c>
       <c r="K20">
-        <v>1.006552262511532</v>
+        <v>1.006552262511533</v>
       </c>
       <c r="L20">
-        <v>0.9695638933573302</v>
+        <v>0.9695638933573306</v>
       </c>
       <c r="M20">
-        <v>0.9826444543660865</v>
+        <v>0.9826444543660874</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577079882248978</v>
+        <v>0.9577079882248977</v>
       </c>
       <c r="D21">
-        <v>0.984580464051764</v>
+        <v>0.9845804640517639</v>
       </c>
       <c r="E21">
-        <v>0.9468989035270328</v>
+        <v>0.9468989035270327</v>
       </c>
       <c r="F21">
-        <v>0.9581711249831705</v>
+        <v>0.9581711249831707</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.028684012699434</v>
       </c>
       <c r="J21">
-        <v>0.9890868820527186</v>
+        <v>0.9890868820527184</v>
       </c>
       <c r="K21">
-        <v>0.9998599736230626</v>
+        <v>0.9998599736230624</v>
       </c>
       <c r="L21">
-        <v>0.9629613171138034</v>
+        <v>0.9629613171138033</v>
       </c>
       <c r="M21">
-        <v>0.9739907891910413</v>
+        <v>0.9739907891910415</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9511687704930164</v>
+        <v>0.951168770493017</v>
       </c>
       <c r="D22">
-        <v>0.9794758696999525</v>
+        <v>0.9794758696999529</v>
       </c>
       <c r="E22">
-        <v>0.9418303927989056</v>
+        <v>0.9418303927989055</v>
       </c>
       <c r="F22">
-        <v>0.9517315951567989</v>
+        <v>0.9517315951567993</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.026223041400772</v>
       </c>
       <c r="J22">
-        <v>0.9842125793747409</v>
+        <v>0.9842125793747416</v>
       </c>
       <c r="K22">
-        <v>0.9954651808595512</v>
+        <v>0.9954651808595517</v>
       </c>
       <c r="L22">
-        <v>0.9586495246163576</v>
+        <v>0.9586495246163573</v>
       </c>
       <c r="M22">
         <v>0.9683239880711537</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9546627569289888</v>
+        <v>0.9546627569289904</v>
       </c>
       <c r="D23">
-        <v>0.9822024392718877</v>
+        <v>0.9822024392718891</v>
       </c>
       <c r="E23">
         <v>0.9445353489757934</v>
       </c>
       <c r="F23">
-        <v>0.955170504845349</v>
+        <v>0.9551705048453502</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.027539264136401</v>
       </c>
       <c r="J23">
-        <v>0.9868172213911793</v>
+        <v>0.9868172213911807</v>
       </c>
       <c r="K23">
-        <v>0.9978137063565766</v>
+        <v>0.9978137063565781</v>
       </c>
       <c r="L23">
         <v>0.9609513791970736</v>
       </c>
       <c r="M23">
-        <v>0.9713507687044498</v>
+        <v>0.9713507687044507</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678380851026999</v>
+        <v>0.9678380851027001</v>
       </c>
       <c r="D24">
         <v>0.9925014129858627</v>
       </c>
       <c r="E24">
-        <v>0.9548018216177658</v>
+        <v>0.9548018216177656</v>
       </c>
       <c r="F24">
-        <v>0.9681759543026714</v>
+        <v>0.9681759543026719</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.032473955167687</v>
       </c>
       <c r="J24">
-        <v>0.9966329722123399</v>
+        <v>0.9966329722123403</v>
       </c>
       <c r="K24">
         <v>1.006661504441576</v>
       </c>
       <c r="L24">
-        <v>0.9696720509395745</v>
+        <v>0.9696720509395744</v>
       </c>
       <c r="M24">
-        <v>0.9827859758448935</v>
+        <v>0.982785975844894</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820839564880532</v>
+        <v>0.9820839564880535</v>
       </c>
       <c r="D25">
         <v>1.003664387056953</v>
       </c>
       <c r="E25">
-        <v>0.9660221448497825</v>
+        <v>0.966022144849783</v>
       </c>
       <c r="F25">
-        <v>0.9823080633168133</v>
+        <v>0.9823080633168136</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.016206083225985</v>
       </c>
       <c r="L25">
-        <v>0.9791718655560604</v>
+        <v>0.9791718655560607</v>
       </c>
       <c r="M25">
-        <v>0.9951873763486974</v>
+        <v>0.9951873763486976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.992735929230967</v>
+        <v>0.9927470095218759</v>
       </c>
       <c r="D2">
-        <v>1.012026113362962</v>
+        <v>1.012035138310148</v>
       </c>
       <c r="E2">
-        <v>0.9744953528102067</v>
+        <v>0.9745059410622998</v>
       </c>
       <c r="F2">
-        <v>0.9929254939215364</v>
+        <v>0.9929359062185682</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041637834058229</v>
+        <v>1.041642891969282</v>
       </c>
       <c r="J2">
-        <v>1.015136099630791</v>
+        <v>1.015146841796412</v>
       </c>
       <c r="K2">
-        <v>1.023320409729249</v>
+        <v>1.023329312676492</v>
       </c>
       <c r="L2">
-        <v>0.9863218270221492</v>
+        <v>0.9863322577875461</v>
       </c>
       <c r="M2">
-        <v>1.004484275732206</v>
+        <v>1.004494540345925</v>
+      </c>
+      <c r="N2">
+        <v>1.011537262775179</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000111847927299</v>
+        <v>1.000117892759833</v>
       </c>
       <c r="D3">
-        <v>1.017821952379756</v>
+        <v>1.017826893299008</v>
       </c>
       <c r="E3">
-        <v>0.9804060349964546</v>
+        <v>0.9804140312499624</v>
       </c>
       <c r="F3">
-        <v>1.000304592142509</v>
+        <v>1.000310907841913</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044299403552957</v>
+        <v>1.044302176584298</v>
       </c>
       <c r="J3">
-        <v>1.020599464319773</v>
+        <v>1.020605344415618</v>
       </c>
       <c r="K3">
-        <v>1.028231765366394</v>
+        <v>1.028236645790028</v>
       </c>
       <c r="L3">
-        <v>0.9912959190516059</v>
+        <v>0.9913038077898109</v>
       </c>
       <c r="M3">
-        <v>1.010933577138303</v>
+        <v>1.010939812089279</v>
+      </c>
+      <c r="N3">
+        <v>1.015360497416943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004733947272742</v>
+        <v>1.0047368923235</v>
       </c>
       <c r="D4">
-        <v>1.021455765416556</v>
+        <v>1.021458186621348</v>
       </c>
       <c r="E4">
-        <v>0.9841287069155905</v>
+        <v>0.9841351258232257</v>
       </c>
       <c r="F4">
-        <v>1.004940644897505</v>
+        <v>1.004944447161671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045951896609689</v>
+        <v>1.045953256926841</v>
       </c>
       <c r="J4">
-        <v>1.024017328519501</v>
+        <v>1.024020199191302</v>
       </c>
       <c r="K4">
-        <v>1.031301955231541</v>
+        <v>1.031304348710704</v>
       </c>
       <c r="L4">
-        <v>0.9944225355276445</v>
+        <v>0.9944288738187271</v>
       </c>
       <c r="M4">
-        <v>1.014979804190954</v>
+        <v>1.014983561123124</v>
+      </c>
+      <c r="N4">
+        <v>1.017749786928279</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006643058244988</v>
+        <v>1.006644734676454</v>
       </c>
       <c r="D5">
-        <v>1.022957011858302</v>
+        <v>1.022958400631076</v>
       </c>
       <c r="E5">
-        <v>0.9856706454008064</v>
+        <v>0.9856764231605187</v>
       </c>
       <c r="F5">
-        <v>1.006858315584588</v>
+        <v>1.006861091142491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046630683113038</v>
+        <v>1.046631463891313</v>
       </c>
       <c r="J5">
-        <v>1.025427600491416</v>
+        <v>1.025429235948192</v>
       </c>
       <c r="K5">
-        <v>1.032568183709439</v>
+        <v>1.032569557031984</v>
       </c>
       <c r="L5">
-        <v>0.9957161166064833</v>
+        <v>0.9957218239065544</v>
       </c>
       <c r="M5">
-        <v>1.016652123904755</v>
+        <v>1.016654867352687</v>
+      </c>
+      <c r="N5">
+        <v>1.018735030305512</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00696166741955</v>
+        <v>1.006963132777237</v>
       </c>
       <c r="D6">
-        <v>1.023207569767527</v>
+        <v>1.023208786695951</v>
       </c>
       <c r="E6">
-        <v>0.9859282273487555</v>
+        <v>0.9859338986929954</v>
       </c>
       <c r="F6">
-        <v>1.007178515762287</v>
+        <v>1.007181120608542</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046743741857318</v>
+        <v>1.046744426133804</v>
       </c>
       <c r="J6">
-        <v>1.025662872402333</v>
+        <v>1.025664302142465</v>
       </c>
       <c r="K6">
-        <v>1.032779389980541</v>
+        <v>1.032780593436653</v>
       </c>
       <c r="L6">
-        <v>0.9959321241186008</v>
+        <v>0.9959377266450834</v>
       </c>
       <c r="M6">
-        <v>1.016931275769091</v>
+        <v>1.016933850633571</v>
+      </c>
+      <c r="N6">
+        <v>1.01889935886401</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004759588017755</v>
+        <v>1.004762515985698</v>
       </c>
       <c r="D7">
-        <v>1.021475927051476</v>
+        <v>1.021478334358517</v>
       </c>
       <c r="E7">
-        <v>0.9841493993535526</v>
+        <v>0.9841558096102101</v>
       </c>
       <c r="F7">
-        <v>1.004966389624699</v>
+        <v>1.004970178055937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045961028179936</v>
+        <v>1.045962380698515</v>
       </c>
       <c r="J7">
-        <v>1.024036275287904</v>
+        <v>1.024039129340458</v>
       </c>
       <c r="K7">
-        <v>1.031318969157444</v>
+        <v>1.031321348908555</v>
       </c>
       <c r="L7">
-        <v>0.9944399008708226</v>
+        <v>0.9944462306509844</v>
       </c>
       <c r="M7">
-        <v>1.015002260536776</v>
+        <v>1.015006003818971</v>
+      </c>
+      <c r="N7">
+        <v>1.017763025987388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952611256973851</v>
+        <v>0.9952704692230732</v>
       </c>
       <c r="D8">
-        <v>1.014009893459336</v>
+        <v>1.014017511090775</v>
       </c>
       <c r="E8">
-        <v>0.9765148381972275</v>
+        <v>0.9765245285565556</v>
       </c>
       <c r="F8">
-        <v>0.9954492033292884</v>
+        <v>0.9954582008416581</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042552245022053</v>
+        <v>1.042556516251686</v>
       </c>
       <c r="J8">
-        <v>1.017007691404137</v>
+        <v>1.017016760341958</v>
       </c>
       <c r="K8">
-        <v>1.025003377845754</v>
+        <v>1.025010895834701</v>
       </c>
       <c r="L8">
-        <v>0.9880226171626156</v>
+        <v>0.9880321681456405</v>
       </c>
       <c r="M8">
-        <v>1.00669117296772</v>
+        <v>1.006700047196949</v>
+      </c>
+      <c r="N8">
+        <v>1.012847514335329</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772680321401095</v>
+        <v>0.9772900735780474</v>
       </c>
       <c r="D9">
-        <v>0.9998878479107804</v>
+        <v>0.9999057224167377</v>
       </c>
       <c r="E9">
-        <v>0.9622149323868034</v>
+        <v>0.9622312684859052</v>
       </c>
       <c r="F9">
-        <v>0.9775221928256683</v>
+        <v>0.9775415751214567</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035973062711708</v>
+        <v>1.035983052355732</v>
       </c>
       <c r="J9">
-        <v>1.003649866458191</v>
+        <v>1.003671077666204</v>
       </c>
       <c r="K9">
-        <v>1.012982744966437</v>
+        <v>1.013000329394111</v>
       </c>
       <c r="L9">
-        <v>0.9759523133173734</v>
+        <v>0.975968356654237</v>
       </c>
       <c r="M9">
-        <v>0.990990797574777</v>
+        <v>0.9910098464406989</v>
+      </c>
+      <c r="N9">
+        <v>1.003485878801529</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642663781193762</v>
+        <v>0.964298121753282</v>
       </c>
       <c r="D10">
-        <v>0.9897068710820917</v>
+        <v>0.9897325305714199</v>
       </c>
       <c r="E10">
-        <v>0.9520082615607396</v>
+        <v>0.9520297789536882</v>
       </c>
       <c r="F10">
-        <v>0.9646443093451268</v>
+        <v>0.9646716836634793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0311410606596</v>
+        <v>1.031155368768467</v>
       </c>
       <c r="J10">
-        <v>0.9939731591755762</v>
+        <v>0.994003506013469</v>
       </c>
       <c r="K10">
-        <v>1.004264491814152</v>
+        <v>1.004289675377017</v>
       </c>
       <c r="L10">
-        <v>0.9673016769412477</v>
+        <v>0.9673227524288477</v>
       </c>
       <c r="M10">
-        <v>0.9796826756423062</v>
+        <v>0.9797095069616761</v>
+      </c>
+      <c r="N10">
+        <v>0.9966919701574001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9583548064741232</v>
+        <v>0.9583911306640068</v>
       </c>
       <c r="D11">
-        <v>0.9850857573660484</v>
+        <v>0.9851150760879867</v>
       </c>
       <c r="E11">
-        <v>0.9474016530739158</v>
+        <v>0.9474256400525036</v>
       </c>
       <c r="F11">
-        <v>0.9588088772477366</v>
+        <v>0.9588400395824637</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028926856899686</v>
+        <v>1.028943188879915</v>
       </c>
       <c r="J11">
-        <v>0.9895689046113284</v>
+        <v>0.9896035221918296</v>
       </c>
       <c r="K11">
-        <v>1.000294523931172</v>
+        <v>1.000323267573831</v>
       </c>
       <c r="L11">
-        <v>0.9633886789510159</v>
+        <v>0.9634121443895205</v>
       </c>
       <c r="M11">
-        <v>0.9745517754058166</v>
+        <v>0.9745822813563665</v>
+      </c>
+      <c r="N11">
+        <v>0.9935972489244398</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9561123546480459</v>
+        <v>0.9561504464239599</v>
       </c>
       <c r="D12">
-        <v>0.9833342441539409</v>
+        <v>0.9833649721195126</v>
       </c>
       <c r="E12">
-        <v>0.9456597544798818</v>
+        <v>0.9456846978063543</v>
       </c>
       <c r="F12">
-        <v>0.9565984708443057</v>
+        <v>0.9566310972658805</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028084480580875</v>
+        <v>1.028101591023775</v>
       </c>
       <c r="J12">
-        <v>0.9878976876435325</v>
+        <v>0.9879339460716373</v>
       </c>
       <c r="K12">
-        <v>0.9987878537113072</v>
+        <v>0.9988179664557709</v>
       </c>
       <c r="L12">
-        <v>0.9619077236310792</v>
+        <v>0.9619321131528884</v>
       </c>
       <c r="M12">
-        <v>0.9726072476041242</v>
+        <v>0.972639171449258</v>
+      </c>
+      <c r="N12">
+        <v>0.9924225918806459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565955540938501</v>
+        <v>0.956633263555323</v>
       </c>
       <c r="D13">
-        <v>0.9837115887222748</v>
+        <v>0.9837420120133274</v>
       </c>
       <c r="E13">
-        <v>0.9460348386323522</v>
+        <v>0.9460595749603061</v>
       </c>
       <c r="F13">
-        <v>0.9570746193555189</v>
+        <v>0.9571069290004944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02826610294948</v>
+        <v>1.028283045135895</v>
       </c>
       <c r="J13">
-        <v>0.9882578205137487</v>
+        <v>0.9882937243774422</v>
       </c>
       <c r="K13">
-        <v>0.9991125384544759</v>
+        <v>0.9991423552941283</v>
       </c>
       <c r="L13">
-        <v>0.9622266793098386</v>
+        <v>0.9622508688832363</v>
       </c>
       <c r="M13">
-        <v>0.9730261668743746</v>
+        <v>0.9730577840482442</v>
+      </c>
+      <c r="N13">
+        <v>0.9926757355479889</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9581704230158229</v>
+        <v>0.9582068919056703</v>
       </c>
       <c r="D14">
-        <v>0.9849417105535383</v>
+        <v>0.9849711446995363</v>
       </c>
       <c r="E14">
-        <v>0.947258312368455</v>
+        <v>0.94728237756991</v>
       </c>
       <c r="F14">
-        <v>0.9586270634825643</v>
+        <v>0.95865834562432</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028857642312326</v>
+        <v>1.028874038072538</v>
       </c>
       <c r="J14">
-        <v>0.9894315005186375</v>
+        <v>0.989466252573729</v>
       </c>
       <c r="K14">
-        <v>1.000170653231665</v>
+        <v>1.000199509051114</v>
       </c>
       <c r="L14">
-        <v>0.9632668384393802</v>
+        <v>0.9632903794912793</v>
       </c>
       <c r="M14">
-        <v>0.974391851024225</v>
+        <v>0.9744224730511274</v>
+      </c>
+      <c r="N14">
+        <v>0.9935006778614514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591344336726779</v>
+        <v>0.9591701472778086</v>
       </c>
       <c r="D15">
-        <v>0.9856948887596639</v>
+        <v>0.985723720315376</v>
       </c>
       <c r="E15">
-        <v>0.9480079669421283</v>
+        <v>0.948031623981253</v>
       </c>
       <c r="F15">
-        <v>0.9595777685959258</v>
+        <v>0.9596084254802869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029219417461579</v>
+        <v>1.029235480208275</v>
       </c>
       <c r="J15">
-        <v>0.9901498682167019</v>
+        <v>0.9901839180652792</v>
       </c>
       <c r="K15">
-        <v>1.000818256787613</v>
+        <v>1.000846526889636</v>
       </c>
       <c r="L15">
-        <v>0.9639039952690378</v>
+        <v>0.963927141716401</v>
       </c>
       <c r="M15">
-        <v>0.9752280563344657</v>
+        <v>0.9752580724768809</v>
+      </c>
+      <c r="N15">
+        <v>0.9940055508310024</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9646524198614508</v>
+        <v>0.9646838682345498</v>
       </c>
       <c r="D16">
-        <v>0.990008825442477</v>
+        <v>0.9900342486999869</v>
       </c>
       <c r="E16">
-        <v>0.9523098238674871</v>
+        <v>0.9523311825360135</v>
       </c>
       <c r="F16">
-        <v>0.9650258036698843</v>
+        <v>0.9650529341245907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031285309355483</v>
+        <v>1.031299486680304</v>
       </c>
       <c r="J16">
-        <v>0.9942606874277439</v>
+        <v>0.9942907580489874</v>
       </c>
       <c r="K16">
-        <v>1.004523631656659</v>
+        <v>1.00454858513374</v>
       </c>
       <c r="L16">
-        <v>0.967557651380579</v>
+        <v>0.9675785730775052</v>
       </c>
       <c r="M16">
-        <v>0.9800179727961158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9800445672455818</v>
+      </c>
+      <c r="N16">
+        <v>0.9968939567291722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9680354192786168</v>
+        <v>0.9680642996929575</v>
       </c>
       <c r="D17">
-        <v>0.9926558622744399</v>
+        <v>0.9926792291410104</v>
       </c>
       <c r="E17">
-        <v>0.9549563907552756</v>
+        <v>0.9549763715252617</v>
       </c>
       <c r="F17">
-        <v>0.9683712071422635</v>
+        <v>0.9683962183030049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032547482271034</v>
+        <v>1.032560520457166</v>
       </c>
       <c r="J17">
-        <v>0.9967798952355266</v>
+        <v>0.9968075587761247</v>
       </c>
       <c r="K17">
-        <v>1.006793897953915</v>
+        <v>1.006816847217274</v>
       </c>
       <c r="L17">
-        <v>0.9698031470444483</v>
+        <v>0.9698227327197141</v>
       </c>
       <c r="M17">
-        <v>0.982957501751381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9829820361123751</v>
+      </c>
+      <c r="N17">
+        <v>0.998663399929662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9699817992968652</v>
+        <v>0.9700092177697126</v>
       </c>
       <c r="D18">
-        <v>0.9941795417307604</v>
+        <v>0.9942017364377224</v>
       </c>
       <c r="E18">
-        <v>0.9564822404449227</v>
+        <v>0.9565014389312703</v>
       </c>
       <c r="F18">
-        <v>0.9702978048658811</v>
+        <v>0.970321610864453</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033272042838428</v>
+        <v>1.033284431163443</v>
       </c>
       <c r="J18">
-        <v>0.9982288726117338</v>
+        <v>0.9982551619803541</v>
       </c>
       <c r="K18">
-        <v>1.008099505942781</v>
+        <v>1.00812131171744</v>
       </c>
       <c r="L18">
-        <v>0.9710969486834224</v>
+        <v>0.9711157750812786</v>
       </c>
       <c r="M18">
-        <v>0.9846497200111356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9846730816116886</v>
+      </c>
+      <c r="N18">
+        <v>0.9996808934058615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9706410284694096</v>
+        <v>0.970667954298495</v>
       </c>
       <c r="D19">
-        <v>0.9946957216856058</v>
+        <v>0.9947175211626607</v>
       </c>
       <c r="E19">
-        <v>0.9569995646334247</v>
+        <v>0.9570184998759558</v>
       </c>
       <c r="F19">
-        <v>0.9709506425038766</v>
+        <v>0.9709740426147395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03351716956745</v>
+        <v>1.033529338681592</v>
       </c>
       <c r="J19">
-        <v>0.9987195578736257</v>
+        <v>0.9987453835493747</v>
       </c>
       <c r="K19">
-        <v>1.00854160752761</v>
+        <v>1.00856302756307</v>
       </c>
       <c r="L19">
-        <v>0.971535461842688</v>
+        <v>0.9715540326119072</v>
       </c>
       <c r="M19">
-        <v>0.9852230278308461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9852459942483982</v>
+      </c>
+      <c r="N19">
+        <v>1.000025418210319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676752635040056</v>
+        <v>0.9677044156616704</v>
       </c>
       <c r="D20">
-        <v>0.9923739800682185</v>
+        <v>0.9923975646979022</v>
       </c>
       <c r="E20">
-        <v>0.9546743036333236</v>
+        <v>0.9546944299894885</v>
       </c>
       <c r="F20">
-        <v>0.9680148604874803</v>
+        <v>0.9680400957714428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032413278312584</v>
+        <v>1.032426437185816</v>
       </c>
       <c r="J20">
-        <v>0.9965117427123753</v>
+        <v>0.9965396613761023</v>
       </c>
       <c r="K20">
-        <v>1.006552262511533</v>
+        <v>1.006575424125588</v>
       </c>
       <c r="L20">
-        <v>0.9695638933573306</v>
+        <v>0.9695836202754269</v>
       </c>
       <c r="M20">
-        <v>0.9826444543660874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9826692067230259</v>
+      </c>
+      <c r="N20">
+        <v>0.9984750795274832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577079882248977</v>
+        <v>0.9577448205229596</v>
       </c>
       <c r="D21">
-        <v>0.9845804640517639</v>
+        <v>0.9846101880342801</v>
       </c>
       <c r="E21">
-        <v>0.9468989035270327</v>
+        <v>0.9469231652352899</v>
       </c>
       <c r="F21">
-        <v>0.9581711249831707</v>
+        <v>0.9582027080531843</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028684012699434</v>
+        <v>1.028700568599088</v>
       </c>
       <c r="J21">
-        <v>0.9890868820527184</v>
+        <v>0.9891219717174805</v>
       </c>
       <c r="K21">
-        <v>0.9998599736230624</v>
+        <v>0.9998891110929794</v>
       </c>
       <c r="L21">
-        <v>0.9629613171138033</v>
+        <v>0.9629850480938448</v>
       </c>
       <c r="M21">
-        <v>0.9739907891910415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9740217027367856</v>
+      </c>
+      <c r="N21">
+        <v>0.9932584658159666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.951168770493017</v>
+        <v>0.9512108203821752</v>
       </c>
       <c r="D22">
-        <v>0.9794758696999529</v>
+        <v>0.9795097476278282</v>
       </c>
       <c r="E22">
-        <v>0.9418303927989055</v>
+        <v>0.9418574836926082</v>
       </c>
       <c r="F22">
-        <v>0.9517315951567993</v>
+        <v>0.9517675045259605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026223041400772</v>
+        <v>1.026241889979403</v>
       </c>
       <c r="J22">
-        <v>0.9842125793747416</v>
+        <v>0.9842524977233194</v>
       </c>
       <c r="K22">
-        <v>0.9954651808595517</v>
+        <v>0.9954983499822173</v>
       </c>
       <c r="L22">
-        <v>0.9586495246163573</v>
+        <v>0.9586759864229892</v>
       </c>
       <c r="M22">
-        <v>0.9683239880711537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9683590865590999</v>
+      </c>
+      <c r="N22">
+        <v>0.989831815482114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9546627569289904</v>
+        <v>0.9547020004564456</v>
       </c>
       <c r="D23">
-        <v>0.9822024392718891</v>
+        <v>0.9822340846469476</v>
       </c>
       <c r="E23">
-        <v>0.9445353489757934</v>
+        <v>0.9445609163795817</v>
       </c>
       <c r="F23">
-        <v>0.9551705048453502</v>
+        <v>0.9552040859305219</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027539264136401</v>
+        <v>1.02755688107008</v>
       </c>
       <c r="J23">
-        <v>0.9868172213911807</v>
+        <v>0.9868545468483908</v>
       </c>
       <c r="K23">
-        <v>0.9978137063565781</v>
+        <v>0.9978447098019128</v>
       </c>
       <c r="L23">
-        <v>0.9609513791970736</v>
+        <v>0.9609763713200103</v>
       </c>
       <c r="M23">
-        <v>0.9713507687044507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9713836163899566</v>
+      </c>
+      <c r="N23">
+        <v>0.9916630648888117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678380851027001</v>
+        <v>0.9678671143609728</v>
       </c>
       <c r="D24">
-        <v>0.9925014129858627</v>
+        <v>0.9925248991339077</v>
       </c>
       <c r="E24">
-        <v>0.9548018216177656</v>
+        <v>0.9548218821239821</v>
       </c>
       <c r="F24">
-        <v>0.9681759543026719</v>
+        <v>0.9682010882198232</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032473955167687</v>
+        <v>1.032487059462825</v>
       </c>
       <c r="J24">
-        <v>0.9966329722123403</v>
+        <v>0.9966607755052334</v>
       </c>
       <c r="K24">
-        <v>1.006661504441576</v>
+        <v>1.006684570025042</v>
       </c>
       <c r="L24">
-        <v>0.9696720509395744</v>
+        <v>0.9696917139746507</v>
       </c>
       <c r="M24">
-        <v>0.982785975844894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9828106296102125</v>
+      </c>
+      <c r="N24">
+        <v>0.998560218346852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820839564880535</v>
+        <v>0.9821025223057288</v>
       </c>
       <c r="D25">
-        <v>1.003664387056953</v>
+        <v>1.003679461634577</v>
       </c>
       <c r="E25">
-        <v>0.966022144849783</v>
+        <v>0.9660366445855695</v>
       </c>
       <c r="F25">
-        <v>0.9823080633168136</v>
+        <v>0.9823245940809658</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037747614326533</v>
+        <v>1.037756046340458</v>
       </c>
       <c r="J25">
-        <v>1.007229685027419</v>
+        <v>1.007247593696576</v>
       </c>
       <c r="K25">
-        <v>1.016206083225985</v>
+        <v>1.016220925970606</v>
       </c>
       <c r="L25">
-        <v>0.9791718655560607</v>
+        <v>0.9791861193074298</v>
       </c>
       <c r="M25">
-        <v>0.9951873763486976</v>
+        <v>0.9952036384908569</v>
+      </c>
+      <c r="N25">
+        <v>1.005996896204096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927470095218759</v>
+        <v>1.018323646075591</v>
       </c>
       <c r="D2">
-        <v>1.012035138310148</v>
+        <v>1.035988344309652</v>
       </c>
       <c r="E2">
-        <v>0.9745059410622998</v>
+        <v>1.030591157067145</v>
       </c>
       <c r="F2">
-        <v>0.9929359062185682</v>
+        <v>1.041768497153508</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041642891969282</v>
+        <v>1.050161074202464</v>
       </c>
       <c r="J2">
-        <v>1.015146841796412</v>
+        <v>1.039969779401902</v>
       </c>
       <c r="K2">
-        <v>1.023329312676492</v>
+        <v>1.046968078196753</v>
       </c>
       <c r="L2">
-        <v>0.9863322577875461</v>
+        <v>1.041640145142793</v>
       </c>
       <c r="M2">
-        <v>1.004494540345925</v>
+        <v>1.052675055532718</v>
       </c>
       <c r="N2">
-        <v>1.011537262775179</v>
+        <v>1.041446655774854</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000117892759833</v>
+        <v>1.026780580032051</v>
       </c>
       <c r="D3">
-        <v>1.017826893299008</v>
+        <v>1.042510335147415</v>
       </c>
       <c r="E3">
-        <v>0.9804140312499624</v>
+        <v>1.036863874401049</v>
       </c>
       <c r="F3">
-        <v>1.000310907841913</v>
+        <v>1.048559143520982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044302176584298</v>
+        <v>1.052670642619011</v>
       </c>
       <c r="J3">
-        <v>1.020605344415618</v>
+        <v>1.046566880105399</v>
       </c>
       <c r="K3">
-        <v>1.028236645790028</v>
+        <v>1.052626714793092</v>
       </c>
       <c r="L3">
-        <v>0.9913038077898109</v>
+        <v>1.047045839997563</v>
       </c>
       <c r="M3">
-        <v>1.010939812089279</v>
+        <v>1.058606230441457</v>
       </c>
       <c r="N3">
-        <v>1.015360497416943</v>
+        <v>1.048053125118048</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0047368923235</v>
+        <v>1.032078617365194</v>
       </c>
       <c r="D4">
-        <v>1.021458186621348</v>
+        <v>1.046599352372383</v>
       </c>
       <c r="E4">
-        <v>0.9841351258232257</v>
+        <v>1.040807609634404</v>
       </c>
       <c r="F4">
-        <v>1.004944447161671</v>
+        <v>1.052822905564662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045953256926841</v>
+        <v>1.054230354363721</v>
       </c>
       <c r="J4">
-        <v>1.024020199191302</v>
+        <v>1.050695881486877</v>
       </c>
       <c r="K4">
-        <v>1.031304348710704</v>
+        <v>1.056166104043417</v>
       </c>
       <c r="L4">
-        <v>0.9944288738187271</v>
+        <v>1.050437259243119</v>
       </c>
       <c r="M4">
-        <v>1.014983561123124</v>
+        <v>1.062323014211559</v>
       </c>
       <c r="N4">
-        <v>1.017749786928279</v>
+        <v>1.052187990155091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006644734676454</v>
+        <v>1.034266745322762</v>
       </c>
       <c r="D5">
-        <v>1.022958400631076</v>
+        <v>1.048288761959732</v>
       </c>
       <c r="E5">
-        <v>0.9856764231605187</v>
+        <v>1.042439558767076</v>
       </c>
       <c r="F5">
-        <v>1.006861091142491</v>
+        <v>1.054585998019587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046631463891313</v>
+        <v>1.054871453023117</v>
       </c>
       <c r="J5">
-        <v>1.025429235948192</v>
+        <v>1.052400167967237</v>
       </c>
       <c r="K5">
-        <v>1.032569557031984</v>
+        <v>1.057626443490493</v>
       </c>
       <c r="L5">
-        <v>0.9957218239065544</v>
+        <v>1.051838945586535</v>
       </c>
       <c r="M5">
-        <v>1.016654867352687</v>
+        <v>1.063858181558099</v>
       </c>
       <c r="N5">
-        <v>1.018735030305512</v>
+        <v>1.053894696917738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006963132777237</v>
+        <v>1.034631914094759</v>
       </c>
       <c r="D6">
-        <v>1.023208786695951</v>
+        <v>1.04857073364436</v>
       </c>
       <c r="E6">
-        <v>0.9859338986929954</v>
+        <v>1.042712088722329</v>
       </c>
       <c r="F6">
-        <v>1.007181120608542</v>
+        <v>1.054880354402474</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046744426133804</v>
+        <v>1.054978260554417</v>
       </c>
       <c r="J6">
-        <v>1.025664302142465</v>
+        <v>1.052684527765972</v>
       </c>
       <c r="K6">
-        <v>1.032780593436653</v>
+        <v>1.057870065622054</v>
       </c>
       <c r="L6">
-        <v>0.9959377266450834</v>
+        <v>1.052072922404069</v>
       </c>
       <c r="M6">
-        <v>1.016933850633571</v>
+        <v>1.064114382417</v>
       </c>
       <c r="N6">
-        <v>1.01889935886401</v>
+        <v>1.054179460540003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004762515985698</v>
+        <v>1.032108005966459</v>
       </c>
       <c r="D7">
-        <v>1.021478334358517</v>
+        <v>1.046622040465207</v>
       </c>
       <c r="E7">
-        <v>0.9841558096102101</v>
+        <v>1.040829516000205</v>
       </c>
       <c r="F7">
-        <v>1.004970178055937</v>
+        <v>1.052846577341598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045962380698515</v>
+        <v>1.054238977193969</v>
       </c>
       <c r="J7">
-        <v>1.024039129340458</v>
+        <v>1.050718775796539</v>
       </c>
       <c r="K7">
-        <v>1.031321348908555</v>
+        <v>1.056185723665867</v>
       </c>
       <c r="L7">
-        <v>0.9944462306509844</v>
+        <v>1.050456081432832</v>
       </c>
       <c r="M7">
-        <v>1.015006003818971</v>
+        <v>1.062343632698192</v>
       </c>
       <c r="N7">
-        <v>1.017763025987388</v>
+        <v>1.052210916977298</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952704692230732</v>
+        <v>1.021219366798658</v>
       </c>
       <c r="D8">
-        <v>1.014017511090775</v>
+        <v>1.038220762557763</v>
       </c>
       <c r="E8">
-        <v>0.9765245285565556</v>
+        <v>1.032735877635602</v>
       </c>
       <c r="F8">
-        <v>0.9954582008416581</v>
+        <v>1.044091522508834</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042556516251686</v>
+        <v>1.051022951908114</v>
       </c>
       <c r="J8">
-        <v>1.017016760341958</v>
+        <v>1.042229448680301</v>
       </c>
       <c r="K8">
-        <v>1.025010895834701</v>
+        <v>1.048906749702601</v>
       </c>
       <c r="L8">
-        <v>0.9880321681456405</v>
+        <v>1.043489952543107</v>
       </c>
       <c r="M8">
-        <v>1.006700047196949</v>
+        <v>1.054705616844128</v>
       </c>
       <c r="N8">
-        <v>1.012847514335329</v>
+        <v>1.043709534042816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772900735780474</v>
+        <v>1.000570745848379</v>
       </c>
       <c r="D9">
-        <v>0.9999057224167377</v>
+        <v>1.022322538972253</v>
       </c>
       <c r="E9">
-        <v>0.9622312684859052</v>
+        <v>1.017513576321931</v>
       </c>
       <c r="F9">
-        <v>0.9775415751214567</v>
+        <v>1.027576787024866</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035983052355732</v>
+        <v>1.044826766461574</v>
       </c>
       <c r="J9">
-        <v>1.003671077666204</v>
+        <v>1.026103365694482</v>
       </c>
       <c r="K9">
-        <v>1.013000329394111</v>
+        <v>1.035063540492393</v>
       </c>
       <c r="L9">
-        <v>0.975968356654237</v>
+        <v>1.030328757697852</v>
       </c>
       <c r="M9">
-        <v>0.9910098464406989</v>
+        <v>1.0402377512861</v>
       </c>
       <c r="N9">
-        <v>1.003485878801529</v>
+        <v>1.027560550169469</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.964298121753282</v>
+        <v>0.9856179743815022</v>
       </c>
       <c r="D10">
-        <v>0.9897325305714199</v>
+        <v>1.010845018258737</v>
       </c>
       <c r="E10">
-        <v>0.9520297789536882</v>
+        <v>1.006594879045831</v>
       </c>
       <c r="F10">
-        <v>0.9646716836634793</v>
+        <v>1.015692983963447</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031155368768467</v>
+        <v>1.040279816073976</v>
       </c>
       <c r="J10">
-        <v>0.994003506013469</v>
+        <v>1.014414059527377</v>
       </c>
       <c r="K10">
-        <v>1.004289675377017</v>
+        <v>1.025021184971585</v>
       </c>
       <c r="L10">
-        <v>0.9673227524288477</v>
+        <v>1.020846073148418</v>
       </c>
       <c r="M10">
-        <v>0.9797095069616761</v>
+        <v>1.029784561929711</v>
       </c>
       <c r="N10">
-        <v>0.9966919701574001</v>
+        <v>1.015854643846825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9583911306640068</v>
+        <v>0.9788066776487104</v>
       </c>
       <c r="D11">
-        <v>0.9851150760879867</v>
+        <v>1.005628410414062</v>
       </c>
       <c r="E11">
-        <v>0.9474256400525036</v>
+        <v>1.001650939621394</v>
       </c>
       <c r="F11">
-        <v>0.9588400395824637</v>
+        <v>1.010301662454971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028943188879915</v>
+        <v>1.038196070157307</v>
       </c>
       <c r="J11">
-        <v>0.9896035221918296</v>
+        <v>1.00908849698689</v>
       </c>
       <c r="K11">
-        <v>1.000323267573831</v>
+        <v>1.020444958044569</v>
       </c>
       <c r="L11">
-        <v>0.9634121443895205</v>
+        <v>1.016541788654358</v>
       </c>
       <c r="M11">
-        <v>0.9745822813563665</v>
+        <v>1.02503188475147</v>
       </c>
       <c r="N11">
-        <v>0.9935972489244398</v>
+        <v>1.01052151839668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9561504464239599</v>
+        <v>0.9762205155887166</v>
       </c>
       <c r="D12">
-        <v>0.9833649721195126</v>
+        <v>1.003649802517322</v>
       </c>
       <c r="E12">
-        <v>0.9456846978063543</v>
+        <v>0.999778742294207</v>
       </c>
       <c r="F12">
-        <v>0.9566310972658805</v>
+        <v>1.008258354299517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028101591023775</v>
+        <v>1.037403188541518</v>
       </c>
       <c r="J12">
-        <v>0.9879339460716373</v>
+        <v>1.007066511504791</v>
       </c>
       <c r="K12">
-        <v>0.9988179664557709</v>
+        <v>1.01870741054122</v>
       </c>
       <c r="L12">
-        <v>0.9619321131528884</v>
+        <v>1.014910182480419</v>
       </c>
       <c r="M12">
-        <v>0.972639171449258</v>
+        <v>1.023229029297242</v>
       </c>
       <c r="N12">
-        <v>0.9924225918806459</v>
+        <v>1.008496661463272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.956633263555323</v>
+        <v>0.9767778955634141</v>
       </c>
       <c r="D13">
-        <v>0.9837420120133274</v>
+        <v>1.004076140930281</v>
       </c>
       <c r="E13">
-        <v>0.9460595749603061</v>
+        <v>1.000182013875442</v>
       </c>
       <c r="F13">
-        <v>0.9571069290004944</v>
+        <v>1.008698561952277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028283045135895</v>
+        <v>1.03757414772387</v>
       </c>
       <c r="J13">
-        <v>0.9882937243774422</v>
+        <v>1.007502291771309</v>
       </c>
       <c r="K13">
-        <v>0.9991423552941283</v>
+        <v>1.019081889984436</v>
       </c>
       <c r="L13">
-        <v>0.9622508688832363</v>
+        <v>1.015261705423295</v>
       </c>
       <c r="M13">
-        <v>0.9730577840482442</v>
+        <v>1.023617506608096</v>
       </c>
       <c r="N13">
-        <v>0.9926757355479889</v>
+        <v>1.008933060587752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9582068919056703</v>
+        <v>0.9785940852574515</v>
       </c>
       <c r="D14">
-        <v>0.9849711446995363</v>
+        <v>1.005465717334049</v>
       </c>
       <c r="E14">
-        <v>0.94728237756991</v>
+        <v>1.001496934522732</v>
       </c>
       <c r="F14">
-        <v>0.95865834562432</v>
+        <v>1.010133617120979</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028874038072538</v>
+        <v>1.038130925844875</v>
       </c>
       <c r="J14">
-        <v>0.989466252573729</v>
+        <v>1.008922279623908</v>
       </c>
       <c r="K14">
-        <v>1.000199509051114</v>
+        <v>1.02030212373372</v>
       </c>
       <c r="L14">
-        <v>0.9632903794912793</v>
+        <v>1.016407607838811</v>
       </c>
       <c r="M14">
-        <v>0.9744224730511274</v>
+        <v>1.024883647180402</v>
       </c>
       <c r="N14">
-        <v>0.9935006778614514</v>
+        <v>1.010355064985976</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591701472778086</v>
+        <v>0.9797054790294555</v>
       </c>
       <c r="D15">
-        <v>0.985723720315376</v>
+        <v>1.006316332809194</v>
       </c>
       <c r="E15">
-        <v>0.948031623981253</v>
+        <v>1.002302248810519</v>
       </c>
       <c r="F15">
-        <v>0.9596084254802869</v>
+        <v>1.011012280109522</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029235480208275</v>
+        <v>1.038471419945672</v>
       </c>
       <c r="J15">
-        <v>0.9901839180652792</v>
+        <v>1.009791237027922</v>
       </c>
       <c r="K15">
-        <v>1.000846526889636</v>
+        <v>1.021048836169516</v>
       </c>
       <c r="L15">
-        <v>0.963927141716401</v>
+        <v>1.017109191349342</v>
       </c>
       <c r="M15">
-        <v>0.9752580724768809</v>
+        <v>1.025658675883393</v>
       </c>
       <c r="N15">
-        <v>0.9940055508310024</v>
+        <v>1.011225256409175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9646838682345498</v>
+        <v>0.9860624689408426</v>
       </c>
       <c r="D16">
-        <v>0.9900342486999869</v>
+        <v>1.011185712169447</v>
       </c>
       <c r="E16">
-        <v>0.9523311825360135</v>
+        <v>1.006918165795746</v>
       </c>
       <c r="F16">
-        <v>0.9650529341245907</v>
+        <v>1.01604529961006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031299486680304</v>
+        <v>1.040415553572487</v>
       </c>
       <c r="J16">
-        <v>0.9942907580489874</v>
+        <v>1.014761595263386</v>
       </c>
       <c r="K16">
-        <v>1.00454858513374</v>
+        <v>1.025319806658569</v>
       </c>
       <c r="L16">
-        <v>0.9675785730775052</v>
+        <v>1.021127309967063</v>
       </c>
       <c r="M16">
-        <v>0.9800445672455818</v>
+        <v>1.030094925725354</v>
       </c>
       <c r="N16">
-        <v>0.9968939567291722</v>
+        <v>1.016202673123442</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9680642996929575</v>
+        <v>0.9899562390365303</v>
       </c>
       <c r="D17">
-        <v>0.9926792291410104</v>
+        <v>1.014171531885049</v>
       </c>
       <c r="E17">
-        <v>0.9549763715252617</v>
+        <v>1.009753552226013</v>
       </c>
       <c r="F17">
-        <v>0.9683962183030049</v>
+        <v>1.01913409844651</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032560520457166</v>
+        <v>1.041603224398286</v>
       </c>
       <c r="J17">
-        <v>0.9968075587761247</v>
+        <v>1.017805931801519</v>
       </c>
       <c r="K17">
-        <v>1.006816847217274</v>
+        <v>1.027935563092017</v>
       </c>
       <c r="L17">
-        <v>0.9698227327197141</v>
+        <v>1.023592700602489</v>
       </c>
       <c r="M17">
-        <v>0.9829820361123751</v>
+        <v>1.032814753770936</v>
       </c>
       <c r="N17">
-        <v>0.998663399929662</v>
+        <v>1.019251332968649</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9700092177697126</v>
+        <v>0.9921953452364516</v>
       </c>
       <c r="D18">
-        <v>0.9942017364377224</v>
+        <v>1.015889589114909</v>
       </c>
       <c r="E18">
-        <v>0.9565014389312703</v>
+        <v>1.01138678656899</v>
       </c>
       <c r="F18">
-        <v>0.970321610864453</v>
+        <v>1.020912337036056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033284431163443</v>
+        <v>1.042285009417096</v>
       </c>
       <c r="J18">
-        <v>0.9982551619803541</v>
+        <v>1.019556480453371</v>
       </c>
       <c r="K18">
-        <v>1.00812131171744</v>
+        <v>1.029439570619157</v>
       </c>
       <c r="L18">
-        <v>0.9711157750812786</v>
+        <v>1.025011821880727</v>
       </c>
       <c r="M18">
-        <v>0.9846730816116886</v>
+        <v>1.034379602345747</v>
       </c>
       <c r="N18">
-        <v>0.9996808934058615</v>
+        <v>1.021004367600378</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.970667954298495</v>
+        <v>0.9929535395179213</v>
       </c>
       <c r="D19">
-        <v>0.9947175211626607</v>
+        <v>1.016471520639735</v>
       </c>
       <c r="E19">
-        <v>0.9570184998759558</v>
+        <v>1.011940277005349</v>
       </c>
       <c r="F19">
-        <v>0.9709740426147395</v>
+        <v>1.021514808084512</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033529338681592</v>
+        <v>1.042515666471417</v>
       </c>
       <c r="J19">
-        <v>0.9987453835493747</v>
+        <v>1.020149221182143</v>
       </c>
       <c r="K19">
-        <v>1.00856302756307</v>
+        <v>1.029948812584693</v>
       </c>
       <c r="L19">
-        <v>0.9715540326119072</v>
+        <v>1.02549258469188</v>
       </c>
       <c r="M19">
-        <v>0.9852459942483982</v>
+        <v>1.03490961251382</v>
       </c>
       <c r="N19">
-        <v>1.000025418210319</v>
+        <v>1.021597950088973</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677044156616704</v>
+        <v>0.989541828419306</v>
       </c>
       <c r="D20">
-        <v>0.9923975646979022</v>
+        <v>1.013853640603698</v>
       </c>
       <c r="E20">
-        <v>0.9546944299894885</v>
+        <v>1.009451495277715</v>
       </c>
       <c r="F20">
-        <v>0.9680400957714428</v>
+        <v>1.018805146462075</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032426437185816</v>
+        <v>1.041476943527243</v>
       </c>
       <c r="J20">
-        <v>0.9965396613761023</v>
+        <v>1.017481934005489</v>
       </c>
       <c r="K20">
-        <v>1.006575424125588</v>
+        <v>1.027657187355902</v>
       </c>
       <c r="L20">
-        <v>0.9695836202754269</v>
+        <v>1.023330162817482</v>
       </c>
       <c r="M20">
-        <v>0.9826692067230259</v>
+        <v>1.032525197779166</v>
       </c>
       <c r="N20">
-        <v>0.9984750795274832</v>
+        <v>1.018926875058586</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577448205229596</v>
+        <v>0.9780608615208873</v>
       </c>
       <c r="D21">
-        <v>0.9846101880342801</v>
+        <v>1.005057685382137</v>
       </c>
       <c r="E21">
-        <v>0.9469231652352899</v>
+        <v>1.001110740629839</v>
       </c>
       <c r="F21">
-        <v>0.9582027080531843</v>
+        <v>1.009712187240051</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028700568599088</v>
+        <v>1.037967504177805</v>
       </c>
       <c r="J21">
-        <v>0.9891219717174805</v>
+        <v>1.008505375314093</v>
       </c>
       <c r="K21">
-        <v>0.9998891110929794</v>
+        <v>1.019943867742198</v>
       </c>
       <c r="L21">
-        <v>0.9629850480938448</v>
+        <v>1.016071100201248</v>
       </c>
       <c r="M21">
-        <v>0.9740217027367856</v>
+        <v>1.024511866159308</v>
       </c>
       <c r="N21">
-        <v>0.9932584658159666</v>
+        <v>1.009937568624222</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9512108203821752</v>
+        <v>0.9705140684031335</v>
       </c>
       <c r="D22">
-        <v>0.9795097476278282</v>
+        <v>0.9992881668916513</v>
       </c>
       <c r="E22">
-        <v>0.9418574836926082</v>
+        <v>0.9956574273375307</v>
       </c>
       <c r="F22">
-        <v>0.9517675045259605</v>
+        <v>1.003757078208617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026241889979403</v>
+        <v>1.035650720263188</v>
       </c>
       <c r="J22">
-        <v>0.9842524977233194</v>
+        <v>1.002605286287988</v>
       </c>
       <c r="K22">
-        <v>0.9954983499822173</v>
+        <v>1.014873738536448</v>
       </c>
       <c r="L22">
-        <v>0.9586759864229892</v>
+        <v>1.011315405108391</v>
       </c>
       <c r="M22">
-        <v>0.9683590865590999</v>
+        <v>1.019254472270483</v>
       </c>
       <c r="N22">
-        <v>0.989831815482114</v>
+        <v>1.00402910079495</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9547020004564456</v>
+        <v>0.9745479759059412</v>
       </c>
       <c r="D23">
-        <v>0.9822340846469476</v>
+        <v>1.002370812469288</v>
       </c>
       <c r="E23">
-        <v>0.9445609163795817</v>
+        <v>0.9985694053719585</v>
       </c>
       <c r="F23">
-        <v>0.9552040859305219</v>
+        <v>1.006937993300192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02755688107008</v>
+        <v>1.036889952067281</v>
       </c>
       <c r="J23">
-        <v>0.9868545468483908</v>
+        <v>1.005758883345199</v>
       </c>
       <c r="K23">
-        <v>0.9978447098019128</v>
+        <v>1.017583722667272</v>
       </c>
       <c r="L23">
-        <v>0.9609763713200103</v>
+        <v>1.013855786014452</v>
       </c>
       <c r="M23">
-        <v>0.9713836163899566</v>
+        <v>1.022063592133683</v>
       </c>
       <c r="N23">
-        <v>0.9916630648888117</v>
+        <v>1.007187176321705</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678671143609728</v>
+        <v>0.989729181415707</v>
       </c>
       <c r="D24">
-        <v>0.9925248991339077</v>
+        <v>1.013997354392369</v>
       </c>
       <c r="E24">
-        <v>0.9548218821239821</v>
+        <v>1.009588045220404</v>
       </c>
       <c r="F24">
-        <v>0.9682010882198232</v>
+        <v>1.018953857750927</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032487059462825</v>
+        <v>1.041534038176854</v>
       </c>
       <c r="J24">
-        <v>0.9966607755052334</v>
+        <v>1.017628412111435</v>
       </c>
       <c r="K24">
-        <v>1.006684570025042</v>
+        <v>1.027783040227652</v>
       </c>
       <c r="L24">
-        <v>0.9696917139746507</v>
+        <v>1.023448850523252</v>
       </c>
       <c r="M24">
-        <v>0.9828106296102125</v>
+        <v>1.032656102102533</v>
       </c>
       <c r="N24">
-        <v>0.998560218346852</v>
+        <v>1.019073561180243</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821025223057288</v>
+        <v>1.006101528433651</v>
       </c>
       <c r="D25">
-        <v>1.003679461634577</v>
+        <v>1.026575899724543</v>
       </c>
       <c r="E25">
-        <v>0.9660366445855695</v>
+        <v>1.021574620248524</v>
       </c>
       <c r="F25">
-        <v>0.9823245940809658</v>
+        <v>1.031988714982886</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037756046340458</v>
+        <v>1.046497089197598</v>
       </c>
       <c r="J25">
-        <v>1.007247593696576</v>
+        <v>1.030425282237187</v>
       </c>
       <c r="K25">
-        <v>1.016220925970606</v>
+        <v>1.038775205874079</v>
       </c>
       <c r="L25">
-        <v>0.9791861193074298</v>
+        <v>1.033847001659272</v>
       </c>
       <c r="M25">
-        <v>0.9952036384908569</v>
+        <v>1.044109943326472</v>
       </c>
       <c r="N25">
-        <v>1.005996896204096</v>
+        <v>1.031888604329396</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018323646075591</v>
+        <v>0.9888084621522725</v>
       </c>
       <c r="D2">
-        <v>1.035988344309652</v>
+        <v>1.009813371667252</v>
       </c>
       <c r="E2">
-        <v>1.030591157067145</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.041768497153508</v>
+        <v>0.9980741665483526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050161074202464</v>
+        <v>1.041379613371726</v>
       </c>
       <c r="J2">
-        <v>1.039969779401902</v>
+        <v>1.011329141750605</v>
       </c>
       <c r="K2">
-        <v>1.046968078196753</v>
+        <v>1.021137662863129</v>
       </c>
       <c r="L2">
-        <v>1.041640145142793</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.052675055532718</v>
+        <v>1.009560396653867</v>
       </c>
       <c r="N2">
-        <v>1.041446655774854</v>
+        <v>1.007910322308285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026780580032051</v>
+        <v>0.9929056144739461</v>
       </c>
       <c r="D3">
-        <v>1.042510335147415</v>
+        <v>1.012847635959455</v>
       </c>
       <c r="E3">
-        <v>1.036863874401049</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.048559143520982</v>
+        <v>1.003088824153158</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052670642619011</v>
+        <v>1.042579212000071</v>
       </c>
       <c r="J3">
-        <v>1.046566880105399</v>
+        <v>1.013591565892642</v>
       </c>
       <c r="K3">
-        <v>1.052626714793092</v>
+        <v>1.023318726267968</v>
       </c>
       <c r="L3">
-        <v>1.047045839997563</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.058606230441457</v>
+        <v>1.013682334871644</v>
       </c>
       <c r="N3">
-        <v>1.048053125118048</v>
+        <v>1.008655511545039</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032078617365194</v>
+        <v>0.9955004026857982</v>
       </c>
       <c r="D4">
-        <v>1.046599352372383</v>
+        <v>1.014768519194627</v>
       </c>
       <c r="E4">
-        <v>1.040807609634404</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.052822905564662</v>
+        <v>1.006263956082866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054230354363721</v>
+        <v>1.043323416103308</v>
       </c>
       <c r="J4">
-        <v>1.050695881486877</v>
+        <v>1.015019913190651</v>
       </c>
       <c r="K4">
-        <v>1.056166104043417</v>
+        <v>1.024691909859169</v>
       </c>
       <c r="L4">
-        <v>1.050437259243119</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.062323014211559</v>
+        <v>1.016287364013151</v>
       </c>
       <c r="N4">
-        <v>1.052187990155091</v>
+        <v>1.009125984213078</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034266745322762</v>
+        <v>0.9965782163153798</v>
       </c>
       <c r="D5">
-        <v>1.048288761959732</v>
+        <v>1.015566173066847</v>
       </c>
       <c r="E5">
-        <v>1.042439558767076</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.054585998019587</v>
+        <v>1.007582706748233</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054871453023117</v>
+        <v>1.043628766756155</v>
       </c>
       <c r="J5">
-        <v>1.052400167967237</v>
+        <v>1.015612113983903</v>
       </c>
       <c r="K5">
-        <v>1.057626443490493</v>
+        <v>1.025260306280876</v>
       </c>
       <c r="L5">
-        <v>1.051838945586535</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.063858181558099</v>
+        <v>1.017368142121196</v>
       </c>
       <c r="N5">
-        <v>1.053894696917738</v>
+        <v>1.00932104596812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034631914094759</v>
+        <v>0.9967584343208917</v>
       </c>
       <c r="D6">
-        <v>1.04857073364436</v>
+        <v>1.015699531033537</v>
       </c>
       <c r="E6">
-        <v>1.042712088722329</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.054880354402474</v>
+        <v>1.007803205237448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054978260554417</v>
+        <v>1.043679600186027</v>
       </c>
       <c r="J6">
-        <v>1.052684527765972</v>
+        <v>1.015711068642282</v>
       </c>
       <c r="K6">
-        <v>1.057870065622054</v>
+        <v>1.02535522779626</v>
       </c>
       <c r="L6">
-        <v>1.052072922404069</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.064114382417</v>
+        <v>1.017548780549383</v>
       </c>
       <c r="N6">
-        <v>1.054179460540003</v>
+        <v>1.009353640138111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032108005966459</v>
+        <v>0.9955148551202628</v>
       </c>
       <c r="D7">
-        <v>1.046622040465207</v>
+        <v>1.014779215958213</v>
       </c>
       <c r="E7">
-        <v>1.040829516000205</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.052846577341598</v>
+        <v>1.006281639674762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054238977193969</v>
+        <v>1.043327525537788</v>
       </c>
       <c r="J7">
-        <v>1.050718775796539</v>
+        <v>1.015027858412284</v>
       </c>
       <c r="K7">
-        <v>1.056185723665867</v>
+        <v>1.024699539430229</v>
       </c>
       <c r="L7">
-        <v>1.050456081432832</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.062343632698192</v>
+        <v>1.016301861268073</v>
       </c>
       <c r="N7">
-        <v>1.052210916977298</v>
+        <v>1.009128601242521</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021219366798658</v>
+        <v>0.9902050606642184</v>
       </c>
       <c r="D8">
-        <v>1.038220762557763</v>
+        <v>1.010847790199477</v>
       </c>
       <c r="E8">
-        <v>1.032735877635602</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.044091522508834</v>
+        <v>0.9997836995440675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051022951908114</v>
+        <v>1.041791746841923</v>
       </c>
       <c r="J8">
-        <v>1.042229448680301</v>
+        <v>1.012101259542544</v>
       </c>
       <c r="K8">
-        <v>1.048906749702601</v>
+        <v>1.021882799137345</v>
       </c>
       <c r="L8">
-        <v>1.043489952543107</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.054705616844128</v>
+        <v>1.010966601553873</v>
       </c>
       <c r="N8">
-        <v>1.043709534042816</v>
+        <v>1.008164637320272</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000570745848379</v>
+        <v>0.9803953955127193</v>
       </c>
       <c r="D9">
-        <v>1.022322538972253</v>
+        <v>1.003581060773555</v>
       </c>
       <c r="E9">
-        <v>1.017513576321931</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.027576787024866</v>
+        <v>0.9877706844006449</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044826766461574</v>
+        <v>1.038833013864096</v>
       </c>
       <c r="J9">
-        <v>1.026103365694482</v>
+        <v>1.006659957099191</v>
       </c>
       <c r="K9">
-        <v>1.035063540492393</v>
+        <v>1.016616303730884</v>
       </c>
       <c r="L9">
-        <v>1.030328757697852</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.0402377512861</v>
+        <v>1.001065339627685</v>
       </c>
       <c r="N9">
-        <v>1.027560550169469</v>
+        <v>1.006372493632545</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9856179743815022</v>
+        <v>0.973518728564948</v>
       </c>
       <c r="D10">
-        <v>1.010845018258737</v>
+        <v>0.9984882823838329</v>
       </c>
       <c r="E10">
-        <v>1.006594879045831</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.015692983963447</v>
+        <v>0.9793400124092758</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040279816073976</v>
+        <v>1.036679833908325</v>
       </c>
       <c r="J10">
-        <v>1.014414059527377</v>
+        <v>1.002823878504083</v>
       </c>
       <c r="K10">
-        <v>1.025021184971585</v>
+        <v>1.012884885107852</v>
       </c>
       <c r="L10">
-        <v>1.020846073148418</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.029784561929711</v>
+        <v>0.9940925847937587</v>
       </c>
       <c r="N10">
-        <v>1.015854643846825</v>
+        <v>1.005109185706609</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9788066776487104</v>
+        <v>0.970453319673362</v>
       </c>
       <c r="D11">
-        <v>1.005628410414062</v>
+        <v>0.9962192317680466</v>
       </c>
       <c r="E11">
-        <v>1.001650939621394</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.010301662454971</v>
+        <v>0.9755786929119983</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038196070157307</v>
+        <v>1.035701956239381</v>
       </c>
       <c r="J11">
-        <v>1.00908849698689</v>
+        <v>1.001109113276338</v>
       </c>
       <c r="K11">
-        <v>1.020444958044569</v>
+        <v>1.011212801794637</v>
       </c>
       <c r="L11">
-        <v>1.016541788654358</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.02503188475147</v>
+        <v>0.9909763377512276</v>
       </c>
       <c r="N11">
-        <v>1.01052151839668</v>
+        <v>1.004544522002949</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9762205155887166</v>
+        <v>0.9693007816673612</v>
       </c>
       <c r="D12">
-        <v>1.003649802517322</v>
+        <v>0.9953663592847573</v>
       </c>
       <c r="E12">
-        <v>0.999778742294207</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.008258354299517</v>
+        <v>0.9741639391637952</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037403188541518</v>
+        <v>1.035331640233507</v>
       </c>
       <c r="J12">
-        <v>1.007066511504791</v>
+        <v>1.000463711266381</v>
       </c>
       <c r="K12">
-        <v>1.01870741054122</v>
+        <v>1.010582874234558</v>
       </c>
       <c r="L12">
-        <v>1.014910182480419</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.023229029297242</v>
+        <v>0.989803440339777</v>
       </c>
       <c r="N12">
-        <v>1.008496661463272</v>
+        <v>1.004332002672464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9767778955634141</v>
+        <v>0.9695486465595559</v>
       </c>
       <c r="D13">
-        <v>1.004076140930281</v>
+        <v>0.9955497655788642</v>
       </c>
       <c r="E13">
-        <v>1.000182013875442</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.008698561952277</v>
+        <v>0.9744682232478169</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03757414772387</v>
+        <v>1.035411399225406</v>
       </c>
       <c r="J13">
-        <v>1.007502291771309</v>
+        <v>1.000602541702043</v>
       </c>
       <c r="K13">
-        <v>1.019081889984436</v>
+        <v>1.010718402241037</v>
       </c>
       <c r="L13">
-        <v>1.015261705423295</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.023617506608096</v>
+        <v>0.9900557407114561</v>
       </c>
       <c r="N13">
-        <v>1.008933060587752</v>
+        <v>1.004377716652726</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9785940852574515</v>
+        <v>0.9703583386189251</v>
       </c>
       <c r="D14">
-        <v>1.005465717334049</v>
+        <v>0.9961489407386059</v>
       </c>
       <c r="E14">
-        <v>1.001496934522732</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.010133617120979</v>
+        <v>0.9754621146023112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038130925844875</v>
+        <v>1.035671491905044</v>
       </c>
       <c r="J14">
-        <v>1.008922279623908</v>
+        <v>1.001055939127576</v>
       </c>
       <c r="K14">
-        <v>1.02030212373372</v>
+        <v>1.011160914410048</v>
       </c>
       <c r="L14">
-        <v>1.016407607838811</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.024883647180402</v>
+        <v>0.9908797044370902</v>
       </c>
       <c r="N14">
-        <v>1.010355064985976</v>
+        <v>1.004527012530549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9797054790294555</v>
+        <v>0.9708553510863467</v>
       </c>
       <c r="D15">
-        <v>1.006316332809194</v>
+        <v>0.9965167670035402</v>
       </c>
       <c r="E15">
-        <v>1.002302248810519</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.011012280109522</v>
+        <v>0.9760721165799404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038471419945672</v>
+        <v>1.035830796560474</v>
       </c>
       <c r="J15">
-        <v>1.009791237027922</v>
+        <v>1.001334158782052</v>
       </c>
       <c r="K15">
-        <v>1.021048836169516</v>
+        <v>1.011432377528161</v>
       </c>
       <c r="L15">
-        <v>1.017109191349342</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.025658675883393</v>
+        <v>0.9913853117628363</v>
       </c>
       <c r="N15">
-        <v>1.011225256409175</v>
+        <v>1.004618626556686</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9860624689408426</v>
+        <v>0.9737202600044791</v>
       </c>
       <c r="D16">
-        <v>1.011185712169447</v>
+        <v>0.9986374886304996</v>
       </c>
       <c r="E16">
-        <v>1.006918165795746</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.01604529961006</v>
+        <v>0.9795872220779752</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040415553572487</v>
+        <v>1.036743752324535</v>
       </c>
       <c r="J16">
-        <v>1.014761595263386</v>
+        <v>1.002936517285556</v>
       </c>
       <c r="K16">
-        <v>1.025319806658569</v>
+        <v>1.012994637069604</v>
       </c>
       <c r="L16">
-        <v>1.021127309967063</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.030094925725354</v>
+        <v>0.9942972883204273</v>
       </c>
       <c r="N16">
-        <v>1.016202673123442</v>
+        <v>1.005146278190444</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9899562390365303</v>
+        <v>0.9754933499440186</v>
       </c>
       <c r="D17">
-        <v>1.014171531885049</v>
+        <v>0.9999503576201578</v>
       </c>
       <c r="E17">
-        <v>1.009753552226013</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.01913409844651</v>
+        <v>0.9817618208051097</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041603224398286</v>
+        <v>1.037304064938148</v>
       </c>
       <c r="J17">
-        <v>1.017805931801519</v>
+        <v>1.003926985099109</v>
       </c>
       <c r="K17">
-        <v>1.027935563092017</v>
+        <v>1.013959257303169</v>
       </c>
       <c r="L17">
-        <v>1.023592700602489</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.032814753770936</v>
+        <v>0.9960973711513059</v>
       </c>
       <c r="N17">
-        <v>1.019251332968649</v>
+        <v>1.005472449471625</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9921953452364516</v>
+        <v>0.9765191465838043</v>
       </c>
       <c r="D18">
-        <v>1.015889589114909</v>
+        <v>1.000710004192999</v>
       </c>
       <c r="E18">
-        <v>1.01138678656899</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.020912337036056</v>
+        <v>0.9830196091520503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042285009417096</v>
+        <v>1.037626509839372</v>
       </c>
       <c r="J18">
-        <v>1.019556480453371</v>
+        <v>1.004499553109961</v>
       </c>
       <c r="K18">
-        <v>1.029439570619157</v>
+        <v>1.014516493283932</v>
       </c>
       <c r="L18">
-        <v>1.025011821880727</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.034379602345747</v>
+        <v>0.9971380280787173</v>
       </c>
       <c r="N18">
-        <v>1.021004367600378</v>
+        <v>1.005661006445863</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9929535395179213</v>
+        <v>0.9768675102090529</v>
       </c>
       <c r="D19">
-        <v>1.016471520639735</v>
+        <v>1.000967997956549</v>
       </c>
       <c r="E19">
-        <v>1.011940277005349</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.021514808084512</v>
+        <v>0.9834467102158265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042515666471417</v>
+        <v>1.037735720194246</v>
       </c>
       <c r="J19">
-        <v>1.020149221182143</v>
+        <v>1.004693921035659</v>
       </c>
       <c r="K19">
-        <v>1.029948812584693</v>
+        <v>1.014705589550581</v>
       </c>
       <c r="L19">
-        <v>1.02549258469188</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.03490961251382</v>
+        <v>0.9974913112493629</v>
       </c>
       <c r="N19">
-        <v>1.021597950088973</v>
+        <v>1.005725016022705</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.989541828419306</v>
+        <v>0.9753039898125051</v>
       </c>
       <c r="D20">
-        <v>1.013853640603698</v>
+        <v>0.9998101362006643</v>
       </c>
       <c r="E20">
-        <v>1.009451495277715</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.018805146462075</v>
+        <v>0.9815296121444973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041476943527243</v>
+        <v>1.037244403054282</v>
       </c>
       <c r="J20">
-        <v>1.017481934005489</v>
+        <v>1.003821253231996</v>
       </c>
       <c r="K20">
-        <v>1.027657187355902</v>
+        <v>1.013856324956262</v>
       </c>
       <c r="L20">
-        <v>1.023330162817482</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.032525197779166</v>
+        <v>0.9959052070084833</v>
       </c>
       <c r="N20">
-        <v>1.018926875058586</v>
+        <v>1.005437630408917</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9780608615208873</v>
+        <v>0.9701202945032701</v>
       </c>
       <c r="D21">
-        <v>1.005057685382137</v>
+        <v>0.9959727797174035</v>
       </c>
       <c r="E21">
-        <v>1.001110740629839</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.009712187240051</v>
+        <v>0.9751699334264774</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037967504177805</v>
+        <v>1.035595098854812</v>
       </c>
       <c r="J21">
-        <v>1.008505375314093</v>
+        <v>1.000922661760986</v>
       </c>
       <c r="K21">
-        <v>1.019943867742198</v>
+        <v>1.011030852816726</v>
       </c>
       <c r="L21">
-        <v>1.016071100201248</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.024511866159308</v>
+        <v>0.9906374991743003</v>
       </c>
       <c r="N21">
-        <v>1.009937568624222</v>
+        <v>1.004483126374464</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9705140684031335</v>
+        <v>0.9667802313115942</v>
       </c>
       <c r="D22">
-        <v>0.9992881668916513</v>
+        <v>0.9935017092221781</v>
       </c>
       <c r="E22">
-        <v>0.9956574273375307</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.003757078208617</v>
+        <v>0.97106879002137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035650720263188</v>
+        <v>1.034516966701957</v>
       </c>
       <c r="J22">
-        <v>1.002605286287988</v>
+        <v>0.9990510295715829</v>
       </c>
       <c r="K22">
-        <v>1.014873738536448</v>
+        <v>1.009203007117925</v>
       </c>
       <c r="L22">
-        <v>1.011315405108391</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.019254472270483</v>
+        <v>0.9872360239065937</v>
       </c>
       <c r="N22">
-        <v>1.00402910079495</v>
+        <v>1.003866848622028</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9745479759059412</v>
+        <v>0.968558782665439</v>
       </c>
       <c r="D23">
-        <v>1.002370812469288</v>
+        <v>0.9948173636449338</v>
       </c>
       <c r="E23">
-        <v>0.9985694053719585</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.006937993300192</v>
+        <v>0.9732529556865133</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036889952067281</v>
+        <v>1.035092492877558</v>
       </c>
       <c r="J23">
-        <v>1.005758883345199</v>
+        <v>1.000048016459436</v>
       </c>
       <c r="K23">
-        <v>1.017583722667272</v>
+        <v>1.010176983321132</v>
       </c>
       <c r="L23">
-        <v>1.013855786014452</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.022063592133683</v>
+        <v>0.9890479774610016</v>
       </c>
       <c r="N23">
-        <v>1.007187176321705</v>
+        <v>1.004195124322678</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.989729181415707</v>
+        <v>0.9753895794624673</v>
       </c>
       <c r="D24">
-        <v>1.013997354392369</v>
+        <v>0.9998735151278924</v>
       </c>
       <c r="E24">
-        <v>1.009588045220404</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.018953857750927</v>
+        <v>0.9816345699842302</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041534038176854</v>
+        <v>1.03727137519638</v>
       </c>
       <c r="J24">
-        <v>1.017628412111435</v>
+        <v>1.00386904481386</v>
       </c>
       <c r="K24">
-        <v>1.027783040227652</v>
+        <v>1.013902852346471</v>
       </c>
       <c r="L24">
-        <v>1.023448850523252</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.032656102102533</v>
+        <v>0.9959920663962123</v>
       </c>
       <c r="N24">
-        <v>1.019073561180243</v>
+        <v>1.005453368867843</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006101528433651</v>
+        <v>0.9829883136450656</v>
       </c>
       <c r="D25">
-        <v>1.026575899724543</v>
+        <v>1.005501875652023</v>
       </c>
       <c r="E25">
-        <v>1.021574620248524</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.031988714982886</v>
+        <v>0.9909473325239655</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046497089197598</v>
+        <v>1.039628917147572</v>
       </c>
       <c r="J25">
-        <v>1.030425282237187</v>
+        <v>1.008102072272621</v>
       </c>
       <c r="K25">
-        <v>1.038775205874079</v>
+        <v>1.01801537829028</v>
       </c>
       <c r="L25">
-        <v>1.033847001659272</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.044109943326472</v>
+        <v>1.003687824069655</v>
       </c>
       <c r="N25">
-        <v>1.031888604329396</v>
+        <v>1.006847448172613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9888084621522725</v>
+        <v>1.015497782699737</v>
       </c>
       <c r="D2">
-        <v>1.009813371667252</v>
+        <v>1.022445918058817</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9980741665483526</v>
+        <v>1.027621456089077</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041379613371726</v>
+        <v>1.028194577939249</v>
       </c>
       <c r="J2">
-        <v>1.011329141750605</v>
+        <v>1.020722958502823</v>
       </c>
       <c r="K2">
-        <v>1.021137662863129</v>
+        <v>1.025280276155554</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.009560396653867</v>
+        <v>1.030440650512469</v>
       </c>
       <c r="N2">
-        <v>1.007910322308285</v>
+        <v>1.011043303306251</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9929056144739461</v>
+        <v>1.016340864875646</v>
       </c>
       <c r="D3">
-        <v>1.012847635959455</v>
+        <v>1.02307307580092</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.003088824153158</v>
+        <v>1.028719273825873</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042579212000071</v>
+        <v>1.028352070087204</v>
       </c>
       <c r="J3">
-        <v>1.013591565892642</v>
+        <v>1.021201642612424</v>
       </c>
       <c r="K3">
-        <v>1.023318726267968</v>
+        <v>1.025714592281431</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.013682334871644</v>
+        <v>1.031345448279973</v>
       </c>
       <c r="N3">
-        <v>1.008655511545039</v>
+        <v>1.011200814450409</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9955004026857982</v>
+        <v>1.016886416656375</v>
       </c>
       <c r="D4">
-        <v>1.014768519194627</v>
+        <v>1.023478465166813</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.006263956082866</v>
+        <v>1.02942965303633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043323416103308</v>
+        <v>1.028452069755527</v>
       </c>
       <c r="J4">
-        <v>1.015019913190651</v>
+        <v>1.021510783991011</v>
       </c>
       <c r="K4">
-        <v>1.024691909859169</v>
+        <v>1.025994513501666</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.016287364013151</v>
+        <v>1.031930347817456</v>
       </c>
       <c r="N4">
-        <v>1.009125984213078</v>
+        <v>1.011302529479239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9965782163153798</v>
+        <v>1.0171157706328</v>
       </c>
       <c r="D5">
-        <v>1.015566173066847</v>
+        <v>1.023648787953266</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.007582706748233</v>
+        <v>1.029728300296114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043628766756155</v>
+        <v>1.028493652057705</v>
       </c>
       <c r="J5">
-        <v>1.015612113983903</v>
+        <v>1.021640602673973</v>
       </c>
       <c r="K5">
-        <v>1.025260306280876</v>
+        <v>1.026111925478718</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.017368142121196</v>
+        <v>1.032176103765295</v>
       </c>
       <c r="N5">
-        <v>1.00932104596812</v>
+        <v>1.011345241040793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9967584343208917</v>
+        <v>1.017154280378291</v>
       </c>
       <c r="D6">
-        <v>1.015699531033537</v>
+        <v>1.023677379820905</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.007803205237448</v>
+        <v>1.029778444698482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043679600186027</v>
+        <v>1.028500607056953</v>
       </c>
       <c r="J6">
-        <v>1.015711068642282</v>
+        <v>1.02166239131114</v>
       </c>
       <c r="K6">
-        <v>1.02535522779626</v>
+        <v>1.026131623783283</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.017548780549383</v>
+        <v>1.032217359290478</v>
       </c>
       <c r="N6">
-        <v>1.009353640138111</v>
+        <v>1.01135240959194</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9955148551202628</v>
+        <v>1.016889481281043</v>
       </c>
       <c r="D7">
-        <v>1.014779215958213</v>
+        <v>1.023480741434446</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.006281639674762</v>
+        <v>1.029433643561067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043327525537788</v>
+        <v>1.02845262717908</v>
       </c>
       <c r="J7">
-        <v>1.015027858412284</v>
+        <v>1.021512519202944</v>
       </c>
       <c r="K7">
-        <v>1.024699539430229</v>
+        <v>1.025996083416376</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.016301861268073</v>
+        <v>1.031933632154811</v>
       </c>
       <c r="N7">
-        <v>1.009128601242521</v>
+        <v>1.011303100387857</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9902050606642184</v>
+        <v>1.015782701225326</v>
       </c>
       <c r="D8">
-        <v>1.010847790199477</v>
+        <v>1.022657955779921</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9997836995440675</v>
+        <v>1.027992464822022</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041791746841923</v>
+        <v>1.028248197844678</v>
       </c>
       <c r="J8">
-        <v>1.012101259542544</v>
+        <v>1.020884855583494</v>
       </c>
       <c r="K8">
-        <v>1.021882799137345</v>
+        <v>1.025427284581886</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.010966601553873</v>
+        <v>1.030746547851494</v>
       </c>
       <c r="N8">
-        <v>1.008164637320272</v>
+        <v>1.011096577241308</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9803953955127193</v>
+        <v>1.013832623114584</v>
       </c>
       <c r="D9">
-        <v>1.003581060773555</v>
+        <v>1.021204922859877</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9877706844006449</v>
+        <v>1.025453076541555</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038833013864096</v>
+        <v>1.027873383106093</v>
       </c>
       <c r="J9">
-        <v>1.006659957099191</v>
+        <v>1.019774281502987</v>
       </c>
       <c r="K9">
-        <v>1.016616303730884</v>
+        <v>1.024416531672746</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.001065339627685</v>
+        <v>1.028650448007413</v>
       </c>
       <c r="N9">
-        <v>1.006372493632545</v>
+        <v>1.010731098839352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.973518728564948</v>
+        <v>1.012532773823903</v>
       </c>
       <c r="D10">
-        <v>0.9984882823838329</v>
+        <v>1.020234182992269</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9793400124092758</v>
+        <v>1.023760273293209</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036679833908325</v>
+        <v>1.027613741968303</v>
       </c>
       <c r="J10">
-        <v>1.002823878504083</v>
+        <v>1.019030890536559</v>
       </c>
       <c r="K10">
-        <v>1.012884885107852</v>
+        <v>1.023737073150393</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9940925847937587</v>
+        <v>1.027250180636101</v>
       </c>
       <c r="N10">
-        <v>1.005109185706609</v>
+        <v>1.010486416670771</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.970453319673362</v>
+        <v>1.011969985296794</v>
       </c>
       <c r="D11">
-        <v>0.9962192317680466</v>
+        <v>1.019813373237379</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9755786929119983</v>
+        <v>1.023027302822807</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035701956239381</v>
+        <v>1.027499006763025</v>
       </c>
       <c r="J11">
-        <v>1.001109113276338</v>
+        <v>1.018708290970139</v>
       </c>
       <c r="K11">
-        <v>1.011212801794637</v>
+        <v>1.023441539153863</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9909763377512276</v>
+        <v>1.026643174101625</v>
       </c>
       <c r="N11">
-        <v>1.004544522002949</v>
+        <v>1.010380225937092</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9693007816673612</v>
+        <v>1.011760949752831</v>
       </c>
       <c r="D12">
-        <v>0.9953663592847573</v>
+        <v>1.019656996095024</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9741639391637952</v>
+        <v>1.022755048753188</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035331640233507</v>
+        <v>1.02745604273482</v>
       </c>
       <c r="J12">
-        <v>1.000463711266381</v>
+        <v>1.018588357798084</v>
       </c>
       <c r="K12">
-        <v>1.010582874234558</v>
+        <v>1.023331566738024</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.989803440339777</v>
+        <v>1.026417602730466</v>
       </c>
       <c r="N12">
-        <v>1.004332002672464</v>
+        <v>1.010340745928849</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9695486465595559</v>
+        <v>1.01180578815643</v>
       </c>
       <c r="D13">
-        <v>0.9955497655788642</v>
+        <v>1.019690542652949</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9744682232478169</v>
+        <v>1.022813448001591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035411399225406</v>
+        <v>1.027465274324036</v>
       </c>
       <c r="J13">
-        <v>1.000602541702043</v>
+        <v>1.018614088624283</v>
       </c>
       <c r="K13">
-        <v>1.010718402241037</v>
+        <v>1.023355165135656</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9900557407114561</v>
+        <v>1.026465993171983</v>
       </c>
       <c r="N13">
-        <v>1.004377716652726</v>
+        <v>1.010349216151167</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9703583386189251</v>
+        <v>1.011952706160964</v>
       </c>
       <c r="D14">
-        <v>0.9961489407386059</v>
+        <v>1.019800448467064</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9754621146023112</v>
+        <v>1.023004798138334</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035671491905044</v>
+        <v>1.027495462403182</v>
       </c>
       <c r="J14">
-        <v>1.001055939127576</v>
+        <v>1.018698379400833</v>
       </c>
       <c r="K14">
-        <v>1.011160914410048</v>
+        <v>1.02343245283175</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9908797044370902</v>
+        <v>1.026624530383316</v>
       </c>
       <c r="N14">
-        <v>1.004527012530549</v>
+        <v>1.010376963240938</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9708553510863467</v>
+        <v>1.012043228436076</v>
       </c>
       <c r="D15">
-        <v>0.9965167670035402</v>
+        <v>1.019868155877123</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9760721165799404</v>
+        <v>1.023122695779696</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035830796560474</v>
+        <v>1.027514016410092</v>
       </c>
       <c r="J15">
-        <v>1.001334158782052</v>
+        <v>1.018750299796735</v>
       </c>
       <c r="K15">
-        <v>1.011432377528161</v>
+        <v>1.023480046133569</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9913853117628363</v>
+        <v>1.026722196868172</v>
       </c>
       <c r="N15">
-        <v>1.004618626556686</v>
+        <v>1.010394054371106</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9737202600044791</v>
+        <v>1.012570125479808</v>
       </c>
       <c r="D16">
-        <v>0.9986374886304996</v>
+        <v>1.020262100904096</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9795872220779752</v>
+        <v>1.023808918655754</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036743752324535</v>
+        <v>1.027621307973512</v>
       </c>
       <c r="J16">
-        <v>1.002936517285556</v>
+        <v>1.019052285592879</v>
       </c>
       <c r="K16">
-        <v>1.012994637069604</v>
+        <v>1.023756658957774</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9942972883204273</v>
+        <v>1.027290451325264</v>
       </c>
       <c r="N16">
-        <v>1.005146278190444</v>
+        <v>1.01049345913055</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9754933499440186</v>
+        <v>1.012900649410468</v>
       </c>
       <c r="D17">
-        <v>0.9999503576201578</v>
+        <v>1.02050908657011</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9817618208051097</v>
+        <v>1.024239374781541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037304064938148</v>
+        <v>1.027687991422724</v>
       </c>
       <c r="J17">
-        <v>1.003926985099109</v>
+        <v>1.019241524751769</v>
       </c>
       <c r="K17">
-        <v>1.013959257303169</v>
+        <v>1.023929817104597</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9960973711513059</v>
+        <v>1.027646720065462</v>
       </c>
       <c r="N17">
-        <v>1.005472449471625</v>
+        <v>1.010555748585527</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9765191465838043</v>
+        <v>1.013093443651131</v>
       </c>
       <c r="D18">
-        <v>1.000710004192999</v>
+        <v>1.020653103400962</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9830196091520503</v>
+        <v>1.024490454913995</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037626509839372</v>
+        <v>1.027726663935935</v>
       </c>
       <c r="J18">
-        <v>1.004499553109961</v>
+        <v>1.019351836543815</v>
       </c>
       <c r="K18">
-        <v>1.014516493283932</v>
+        <v>1.024030689512565</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9971380280787173</v>
+        <v>1.027854459818964</v>
       </c>
       <c r="N18">
-        <v>1.005661006445863</v>
+        <v>1.01059205762789</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9768675102090529</v>
+        <v>1.013159182362316</v>
       </c>
       <c r="D19">
-        <v>1.000967997956549</v>
+        <v>1.02070220161935</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9834467102158265</v>
+        <v>1.024576067146836</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037735720194246</v>
+        <v>1.027739812451436</v>
       </c>
       <c r="J19">
-        <v>1.004693921035659</v>
+        <v>1.019389438420706</v>
       </c>
       <c r="K19">
-        <v>1.014705589550581</v>
+        <v>1.024065062688228</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9974913112493629</v>
+        <v>1.02792528254143</v>
       </c>
       <c r="N19">
-        <v>1.005725016022705</v>
+        <v>1.010604434105208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9753039898125051</v>
+        <v>1.012865186773553</v>
       </c>
       <c r="D20">
-        <v>0.9998101362006643</v>
+        <v>1.020482592065454</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9815296121444973</v>
+        <v>1.024193190668243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037244403054282</v>
+        <v>1.027680859961949</v>
       </c>
       <c r="J20">
-        <v>1.003821253231996</v>
+        <v>1.019221228230205</v>
       </c>
       <c r="K20">
-        <v>1.013856324956262</v>
+        <v>1.023911252086986</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9959052070084833</v>
+        <v>1.027608502602641</v>
       </c>
       <c r="N20">
-        <v>1.005437630408917</v>
+        <v>1.010549067928953</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9701202945032701</v>
+        <v>1.011909442209703</v>
       </c>
       <c r="D21">
-        <v>0.9959727797174035</v>
+        <v>1.019768085855998</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9751699334264774</v>
+        <v>1.022948450186566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035595098854812</v>
+        <v>1.027486582319944</v>
       </c>
       <c r="J21">
-        <v>1.000922661760986</v>
+        <v>1.018673560769281</v>
       </c>
       <c r="K21">
-        <v>1.011030852816726</v>
+        <v>1.023409698987619</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9906374991743003</v>
+        <v>1.02657784794278</v>
       </c>
       <c r="N21">
-        <v>1.004483126374464</v>
+        <v>1.010368793407288</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9667802313115942</v>
+        <v>1.011308581205029</v>
       </c>
       <c r="D22">
-        <v>0.9935017092221781</v>
+        <v>1.01931844508019</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.97106879002137</v>
+        <v>1.022165854474109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034516966701957</v>
+        <v>1.027362429178737</v>
       </c>
       <c r="J22">
-        <v>0.9990510295715829</v>
+        <v>1.018328611486051</v>
       </c>
       <c r="K22">
-        <v>1.009203007117925</v>
+        <v>1.023093207960133</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9872360239065937</v>
+        <v>1.025929243764113</v>
       </c>
       <c r="N22">
-        <v>1.003866848622028</v>
+        <v>1.010255239270498</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.968558782665439</v>
+        <v>1.011627103604551</v>
       </c>
       <c r="D23">
-        <v>0.9948173636449338</v>
+        <v>1.019556845838294</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9732529556865133</v>
+        <v>1.022580721142451</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035092492877558</v>
+        <v>1.027428434771446</v>
       </c>
       <c r="J23">
-        <v>1.000048016459436</v>
+        <v>1.018511533091263</v>
       </c>
       <c r="K23">
-        <v>1.010176983321132</v>
+        <v>1.023261094019752</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9890479774610016</v>
+        <v>1.026273137011645</v>
       </c>
       <c r="N23">
-        <v>1.004195124322678</v>
+        <v>1.010315456127898</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9753895794624673</v>
+        <v>1.012881210796605</v>
       </c>
       <c r="D24">
-        <v>0.9998735151278924</v>
+        <v>1.020494563933087</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9816345699842302</v>
+        <v>1.024214059273627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03727137519638</v>
+        <v>1.027684083050595</v>
       </c>
       <c r="J24">
-        <v>1.00386904481386</v>
+        <v>1.019230399565445</v>
       </c>
       <c r="K24">
-        <v>1.013902852346471</v>
+        <v>1.023919641214301</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9959920663962123</v>
+        <v>1.027625771632152</v>
       </c>
       <c r="N24">
-        <v>1.005453368867843</v>
+        <v>1.010552086702237</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9829883136450656</v>
+        <v>1.014336733809736</v>
       </c>
       <c r="D25">
-        <v>1.005501875652023</v>
+        <v>1.021580934533696</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9909473325239655</v>
+        <v>1.026109549137196</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039628917147572</v>
+        <v>1.027972005756369</v>
       </c>
       <c r="J25">
-        <v>1.008102072272621</v>
+        <v>1.020061925479589</v>
       </c>
       <c r="K25">
-        <v>1.01801537829028</v>
+        <v>1.024678831209658</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.003687824069655</v>
+        <v>1.029192847452159</v>
       </c>
       <c r="N25">
-        <v>1.006847448172613</v>
+        <v>1.01082576658615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.015497782699737</v>
+        <v>0.9888084621522725</v>
       </c>
       <c r="D2">
-        <v>1.022445918058817</v>
+        <v>1.009813371667252</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.027621456089077</v>
+        <v>0.998074166548352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028194577939249</v>
+        <v>1.041379613371726</v>
       </c>
       <c r="J2">
-        <v>1.020722958502823</v>
+        <v>1.011329141750605</v>
       </c>
       <c r="K2">
-        <v>1.025280276155554</v>
+        <v>1.021137662863129</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.030440650512469</v>
+        <v>1.009560396653866</v>
       </c>
       <c r="N2">
-        <v>1.011043303306251</v>
+        <v>1.007910322308285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016340864875646</v>
+        <v>0.9929056144739463</v>
       </c>
       <c r="D3">
-        <v>1.02307307580092</v>
+        <v>1.012847635959455</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.028719273825873</v>
+        <v>1.003088824153159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028352070087204</v>
+        <v>1.042579212000071</v>
       </c>
       <c r="J3">
-        <v>1.021201642612424</v>
+        <v>1.013591565892642</v>
       </c>
       <c r="K3">
-        <v>1.025714592281431</v>
+        <v>1.023318726267969</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.031345448279973</v>
+        <v>1.013682334871645</v>
       </c>
       <c r="N3">
-        <v>1.011200814450409</v>
+        <v>1.008655511545039</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016886416656375</v>
+        <v>0.9955004026857981</v>
       </c>
       <c r="D4">
-        <v>1.023478465166813</v>
+        <v>1.014768519194626</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.02942965303633</v>
+        <v>1.006263956082865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028452069755527</v>
+        <v>1.043323416103308</v>
       </c>
       <c r="J4">
-        <v>1.021510783991011</v>
+        <v>1.015019913190651</v>
       </c>
       <c r="K4">
-        <v>1.025994513501666</v>
+        <v>1.024691909859169</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.031930347817456</v>
+        <v>1.016287364013151</v>
       </c>
       <c r="N4">
-        <v>1.011302529479239</v>
+        <v>1.009125984213078</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0171157706328</v>
+        <v>0.9965782163153795</v>
       </c>
       <c r="D5">
-        <v>1.023648787953266</v>
+        <v>1.015566173066846</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.029728300296114</v>
+        <v>1.007582706748233</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028493652057705</v>
+        <v>1.043628766756155</v>
       </c>
       <c r="J5">
-        <v>1.021640602673973</v>
+        <v>1.015612113983902</v>
       </c>
       <c r="K5">
-        <v>1.026111925478718</v>
+        <v>1.025260306280876</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.032176103765295</v>
+        <v>1.017368142121196</v>
       </c>
       <c r="N5">
-        <v>1.011345241040793</v>
+        <v>1.00932104596812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017154280378291</v>
+        <v>0.9967584343208922</v>
       </c>
       <c r="D6">
-        <v>1.023677379820905</v>
+        <v>1.015699531033537</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.029778444698482</v>
+        <v>1.007803205237449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028500607056953</v>
+        <v>1.043679600186027</v>
       </c>
       <c r="J6">
-        <v>1.02166239131114</v>
+        <v>1.015711068642283</v>
       </c>
       <c r="K6">
-        <v>1.026131623783283</v>
+        <v>1.02535522779626</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.032217359290478</v>
+        <v>1.017548780549384</v>
       </c>
       <c r="N6">
-        <v>1.01135240959194</v>
+        <v>1.009353640138111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016889481281043</v>
+        <v>0.9955148551202631</v>
       </c>
       <c r="D7">
-        <v>1.023480741434446</v>
+        <v>1.014779215958214</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.029433643561067</v>
+        <v>1.006281639674763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02845262717908</v>
+        <v>1.043327525537788</v>
       </c>
       <c r="J7">
-        <v>1.021512519202944</v>
+        <v>1.015027858412284</v>
       </c>
       <c r="K7">
-        <v>1.025996083416376</v>
+        <v>1.024699539430229</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.031933632154811</v>
+        <v>1.016301861268073</v>
       </c>
       <c r="N7">
-        <v>1.011303100387857</v>
+        <v>1.009128601242521</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015782701225326</v>
+        <v>0.9902050606642188</v>
       </c>
       <c r="D8">
-        <v>1.022657955779921</v>
+        <v>1.010847790199477</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.027992464822022</v>
+        <v>0.9997836995440678</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028248197844678</v>
+        <v>1.041791746841923</v>
       </c>
       <c r="J8">
-        <v>1.020884855583494</v>
+        <v>1.012101259542545</v>
       </c>
       <c r="K8">
-        <v>1.025427284581886</v>
+        <v>1.021882799137345</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.030746547851494</v>
+        <v>1.010966601553873</v>
       </c>
       <c r="N8">
-        <v>1.011096577241308</v>
+        <v>1.008164637320272</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013832623114584</v>
+        <v>0.9803953955127195</v>
       </c>
       <c r="D9">
-        <v>1.021204922859877</v>
+        <v>1.003581060773555</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.025453076541555</v>
+        <v>0.9877706844006452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027873383106093</v>
+        <v>1.038833013864096</v>
       </c>
       <c r="J9">
-        <v>1.019774281502987</v>
+        <v>1.006659957099191</v>
       </c>
       <c r="K9">
-        <v>1.024416531672746</v>
+        <v>1.016616303730884</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.028650448007413</v>
+        <v>1.001065339627685</v>
       </c>
       <c r="N9">
-        <v>1.010731098839352</v>
+        <v>1.006372493632545</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012532773823903</v>
+        <v>0.9735187285649475</v>
       </c>
       <c r="D10">
-        <v>1.020234182992269</v>
+        <v>0.9984882823838325</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.023760273293209</v>
+        <v>0.9793400124092753</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027613741968303</v>
+        <v>1.036679833908324</v>
       </c>
       <c r="J10">
-        <v>1.019030890536559</v>
+        <v>1.002823878504082</v>
       </c>
       <c r="K10">
-        <v>1.023737073150393</v>
+        <v>1.012884885107852</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.027250180636101</v>
+        <v>0.9940925847937582</v>
       </c>
       <c r="N10">
-        <v>1.010486416670771</v>
+        <v>1.005109185706609</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011969985296794</v>
+        <v>0.9704533196733612</v>
       </c>
       <c r="D11">
-        <v>1.019813373237379</v>
+        <v>0.9962192317680457</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.023027302822807</v>
+        <v>0.9755786929119971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027499006763025</v>
+        <v>1.035701956239381</v>
       </c>
       <c r="J11">
-        <v>1.018708290970139</v>
+        <v>1.001109113276337</v>
       </c>
       <c r="K11">
-        <v>1.023441539153863</v>
+        <v>1.011212801794636</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.026643174101625</v>
+        <v>0.9909763377512265</v>
       </c>
       <c r="N11">
-        <v>1.010380225937092</v>
+        <v>1.004544522002949</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011760949752831</v>
+        <v>0.9693007816673611</v>
       </c>
       <c r="D12">
-        <v>1.019656996095024</v>
+        <v>0.995366359284757</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.022755048753188</v>
+        <v>0.9741639391637952</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02745604273482</v>
+        <v>1.035331640233506</v>
       </c>
       <c r="J12">
-        <v>1.018588357798084</v>
+        <v>1.00046371126638</v>
       </c>
       <c r="K12">
-        <v>1.023331566738024</v>
+        <v>1.010582874234557</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.026417602730466</v>
+        <v>0.989803440339777</v>
       </c>
       <c r="N12">
-        <v>1.010340745928849</v>
+        <v>1.004332002672464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01180578815643</v>
+        <v>0.969548646559556</v>
       </c>
       <c r="D13">
-        <v>1.019690542652949</v>
+        <v>0.9955497655788641</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.022813448001591</v>
+        <v>0.9744682232478167</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027465274324036</v>
+        <v>1.035411399225406</v>
       </c>
       <c r="J13">
-        <v>1.018614088624283</v>
+        <v>1.000602541702043</v>
       </c>
       <c r="K13">
-        <v>1.023355165135656</v>
+        <v>1.010718402241037</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.026465993171983</v>
+        <v>0.990055740711456</v>
       </c>
       <c r="N13">
-        <v>1.010349216151167</v>
+        <v>1.004377716652726</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011952706160964</v>
+        <v>0.970358338618925</v>
       </c>
       <c r="D14">
-        <v>1.019800448467064</v>
+        <v>0.9961489407386059</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.023004798138334</v>
+        <v>0.9754621146023114</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027495462403182</v>
+        <v>1.035671491905044</v>
       </c>
       <c r="J14">
-        <v>1.018698379400833</v>
+        <v>1.001055939127576</v>
       </c>
       <c r="K14">
-        <v>1.02343245283175</v>
+        <v>1.011160914410048</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.026624530383316</v>
+        <v>0.9908797044370904</v>
       </c>
       <c r="N14">
-        <v>1.010376963240938</v>
+        <v>1.004527012530549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012043228436076</v>
+        <v>0.9708553510863468</v>
       </c>
       <c r="D15">
-        <v>1.019868155877123</v>
+        <v>0.9965167670035403</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.023122695779696</v>
+        <v>0.9760721165799404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027514016410092</v>
+        <v>1.035830796560474</v>
       </c>
       <c r="J15">
-        <v>1.018750299796735</v>
+        <v>1.001334158782052</v>
       </c>
       <c r="K15">
-        <v>1.023480046133569</v>
+        <v>1.011432377528161</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.026722196868172</v>
+        <v>0.9913853117628363</v>
       </c>
       <c r="N15">
-        <v>1.010394054371106</v>
+        <v>1.004618626556686</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012570125479808</v>
+        <v>0.9737202600044786</v>
       </c>
       <c r="D16">
-        <v>1.020262100904096</v>
+        <v>0.9986374886304993</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.023808918655754</v>
+        <v>0.9795872220779749</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027621307973512</v>
+        <v>1.036743752324535</v>
       </c>
       <c r="J16">
-        <v>1.019052285592879</v>
+        <v>1.002936517285555</v>
       </c>
       <c r="K16">
-        <v>1.023756658957774</v>
+        <v>1.012994637069603</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.027290451325264</v>
+        <v>0.9942972883204269</v>
       </c>
       <c r="N16">
-        <v>1.01049345913055</v>
+        <v>1.005146278190444</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012900649410468</v>
+        <v>0.975493349944019</v>
       </c>
       <c r="D17">
-        <v>1.02050908657011</v>
+        <v>0.999950357620158</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.024239374781541</v>
+        <v>0.9817618208051095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027687991422724</v>
+        <v>1.037304064938148</v>
       </c>
       <c r="J17">
-        <v>1.019241524751769</v>
+        <v>1.003926985099109</v>
       </c>
       <c r="K17">
-        <v>1.023929817104597</v>
+        <v>1.01395925730317</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.027646720065462</v>
+        <v>0.996097371151306</v>
       </c>
       <c r="N17">
-        <v>1.010555748585527</v>
+        <v>1.005472449471625</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013093443651131</v>
+        <v>0.9765191465838045</v>
       </c>
       <c r="D18">
-        <v>1.020653103400962</v>
+        <v>1.000710004192999</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.024490454913995</v>
+        <v>0.9830196091520502</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027726663935935</v>
+        <v>1.037626509839372</v>
       </c>
       <c r="J18">
-        <v>1.019351836543815</v>
+        <v>1.004499553109961</v>
       </c>
       <c r="K18">
-        <v>1.024030689512565</v>
+        <v>1.014516493283932</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.027854459818964</v>
+        <v>0.9971380280787172</v>
       </c>
       <c r="N18">
-        <v>1.01059205762789</v>
+        <v>1.005661006445864</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013159182362316</v>
+        <v>0.9768675102090525</v>
       </c>
       <c r="D19">
-        <v>1.02070220161935</v>
+        <v>1.000967997956548</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.024576067146836</v>
+        <v>0.9834467102158263</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027739812451436</v>
+        <v>1.037735720194246</v>
       </c>
       <c r="J19">
-        <v>1.019389438420706</v>
+        <v>1.004693921035659</v>
       </c>
       <c r="K19">
-        <v>1.024065062688228</v>
+        <v>1.01470558955058</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.02792528254143</v>
+        <v>0.9974913112493626</v>
       </c>
       <c r="N19">
-        <v>1.010604434105208</v>
+        <v>1.005725016022704</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012865186773553</v>
+        <v>0.9753039898125045</v>
       </c>
       <c r="D20">
-        <v>1.020482592065454</v>
+        <v>0.9998101362006637</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.024193190668243</v>
+        <v>0.9815296121444969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027680859961949</v>
+        <v>1.037244403054282</v>
       </c>
       <c r="J20">
-        <v>1.019221228230205</v>
+        <v>1.003821253231996</v>
       </c>
       <c r="K20">
-        <v>1.023911252086986</v>
+        <v>1.013856324956262</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.027608502602641</v>
+        <v>0.995905207008483</v>
       </c>
       <c r="N20">
-        <v>1.010549067928953</v>
+        <v>1.005437630408917</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011909442209703</v>
+        <v>0.9701202945032699</v>
       </c>
       <c r="D21">
-        <v>1.019768085855998</v>
+        <v>0.9959727797174032</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.022948450186566</v>
+        <v>0.9751699334264772</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027486582319944</v>
+        <v>1.035595098854812</v>
       </c>
       <c r="J21">
-        <v>1.018673560769281</v>
+        <v>1.000922661760986</v>
       </c>
       <c r="K21">
-        <v>1.023409698987619</v>
+        <v>1.011030852816726</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.02657784794278</v>
+        <v>0.9906374991743001</v>
       </c>
       <c r="N21">
-        <v>1.010368793407288</v>
+        <v>1.004483126374464</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011308581205029</v>
+        <v>0.9667802313115942</v>
       </c>
       <c r="D22">
-        <v>1.01931844508019</v>
+        <v>0.9935017092221781</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.022165854474109</v>
+        <v>0.9710687900213703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027362429178737</v>
+        <v>1.034516966701957</v>
       </c>
       <c r="J22">
-        <v>1.018328611486051</v>
+        <v>0.9990510295715828</v>
       </c>
       <c r="K22">
-        <v>1.023093207960133</v>
+        <v>1.009203007117925</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.025929243764113</v>
+        <v>0.987236023906594</v>
       </c>
       <c r="N22">
-        <v>1.010255239270498</v>
+        <v>1.003866848622028</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011627103604551</v>
+        <v>0.9685587826654387</v>
       </c>
       <c r="D23">
-        <v>1.019556845838294</v>
+        <v>0.9948173636449336</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.022580721142451</v>
+        <v>0.9732529556865127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027428434771446</v>
+        <v>1.035092492877558</v>
       </c>
       <c r="J23">
-        <v>1.018511533091263</v>
+        <v>1.000048016459436</v>
       </c>
       <c r="K23">
-        <v>1.023261094019752</v>
+        <v>1.010176983321131</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.026273137011645</v>
+        <v>0.9890479774610011</v>
       </c>
       <c r="N23">
-        <v>1.010315456127898</v>
+        <v>1.004195124322678</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012881210796605</v>
+        <v>0.9753895794624668</v>
       </c>
       <c r="D24">
-        <v>1.020494563933087</v>
+        <v>0.9998735151278916</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.024214059273627</v>
+        <v>0.9816345699842296</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027684083050595</v>
+        <v>1.03727137519638</v>
       </c>
       <c r="J24">
-        <v>1.019230399565445</v>
+        <v>1.00386904481386</v>
       </c>
       <c r="K24">
-        <v>1.023919641214301</v>
+        <v>1.01390285234647</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.027625771632152</v>
+        <v>0.9959920663962116</v>
       </c>
       <c r="N24">
-        <v>1.010552086702237</v>
+        <v>1.005453368867843</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014336733809736</v>
+        <v>0.982988313645066</v>
       </c>
       <c r="D25">
-        <v>1.021580934533696</v>
+        <v>1.005501875652023</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.026109549137196</v>
+        <v>0.9909473325239658</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027972005756369</v>
+        <v>1.039628917147572</v>
       </c>
       <c r="J25">
-        <v>1.020061925479589</v>
+        <v>1.008102072272621</v>
       </c>
       <c r="K25">
-        <v>1.024678831209658</v>
+        <v>1.018015378290281</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.029192847452159</v>
+        <v>1.003687824069655</v>
       </c>
       <c r="N25">
-        <v>1.01082576658615</v>
+        <v>1.006847448172613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9888084621522725</v>
+        <v>1.008746072996061</v>
       </c>
       <c r="D2">
-        <v>1.009813371667252</v>
+        <v>1.03057040252101</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.029081601901515</v>
       </c>
       <c r="F2">
-        <v>0.998074166548352</v>
+        <v>1.038612408717086</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041379613371726</v>
+        <v>1.048569191780943</v>
       </c>
       <c r="J2">
-        <v>1.011329141750605</v>
+        <v>1.030668300703475</v>
       </c>
       <c r="K2">
-        <v>1.021137662863129</v>
+        <v>1.041619658660785</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.040150122581787</v>
       </c>
       <c r="M2">
-        <v>1.009560396653866</v>
+        <v>1.049558796490246</v>
       </c>
       <c r="N2">
-        <v>1.007910322308285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013712475142573</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047794817334094</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040498985781311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9929056144739463</v>
+        <v>1.01305312930816</v>
       </c>
       <c r="D3">
-        <v>1.012847635959455</v>
+        <v>1.03339702141658</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.032295743249835</v>
       </c>
       <c r="F3">
-        <v>1.003088824153159</v>
+        <v>1.041589960709159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042579212000071</v>
+        <v>1.049379195352903</v>
       </c>
       <c r="J3">
-        <v>1.013591565892642</v>
+        <v>1.03319416909167</v>
       </c>
       <c r="K3">
-        <v>1.023318726267969</v>
+        <v>1.043619695581803</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.042531419744711</v>
       </c>
       <c r="M3">
-        <v>1.013682334871645</v>
+        <v>1.051716970946083</v>
       </c>
       <c r="N3">
-        <v>1.008655511545039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014597298105767</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049502848688622</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04191052226532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9955004026857981</v>
+        <v>1.015787887347395</v>
       </c>
       <c r="D4">
-        <v>1.014768519194626</v>
+        <v>1.035195772848951</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.034346943505686</v>
       </c>
       <c r="F4">
-        <v>1.006263956082865</v>
+        <v>1.043488283866844</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043323416103308</v>
+        <v>1.049884158972388</v>
       </c>
       <c r="J4">
-        <v>1.015019913190651</v>
+        <v>1.034796181397022</v>
       </c>
       <c r="K4">
-        <v>1.024691909859169</v>
+        <v>1.044887191933949</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.04404777742052</v>
       </c>
       <c r="M4">
-        <v>1.016287364013151</v>
+        <v>1.05308871504227</v>
       </c>
       <c r="N4">
-        <v>1.009125984213078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015158097172966</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050588478037301</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04280763868675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9965782163153795</v>
+        <v>1.016930078368694</v>
       </c>
       <c r="D5">
-        <v>1.015566173066846</v>
+        <v>1.035949888859717</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.035205808719457</v>
       </c>
       <c r="F5">
-        <v>1.007582706748233</v>
+        <v>1.044283196764202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043628766756155</v>
+        <v>1.050094392040054</v>
       </c>
       <c r="J5">
-        <v>1.015612113983902</v>
+        <v>1.035466599336649</v>
       </c>
       <c r="K5">
-        <v>1.025260306280876</v>
+        <v>1.045418736843156</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.044682689077775</v>
       </c>
       <c r="M5">
-        <v>1.017368142121196</v>
+        <v>1.053663043148445</v>
       </c>
       <c r="N5">
-        <v>1.00932104596812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015393280098066</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051043013840917</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043190623233892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9967584343208922</v>
+        <v>1.017126735405917</v>
       </c>
       <c r="D6">
-        <v>1.015699531033537</v>
+        <v>1.03608214564996</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.035353503245174</v>
       </c>
       <c r="F6">
-        <v>1.007803205237449</v>
+        <v>1.044420486959655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043679600186027</v>
+        <v>1.050132425153071</v>
       </c>
       <c r="J6">
-        <v>1.015711068642283</v>
+        <v>1.035584173108623</v>
       </c>
       <c r="K6">
-        <v>1.02535522779626</v>
+        <v>1.045513605439161</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.044792792568127</v>
       </c>
       <c r="M6">
-        <v>1.017548780549384</v>
+        <v>1.053763299434077</v>
       </c>
       <c r="N6">
-        <v>1.009353640138111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015435245850034</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051122358826155</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043266409370503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9955148551202631</v>
+        <v>1.015818235969069</v>
       </c>
       <c r="D7">
-        <v>1.014779215958214</v>
+        <v>1.035222148356591</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.034368914179417</v>
       </c>
       <c r="F7">
-        <v>1.006281639674763</v>
+        <v>1.043510260996863</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043327525537788</v>
+        <v>1.049895067178106</v>
       </c>
       <c r="J7">
-        <v>1.015027858412284</v>
+        <v>1.03481983988953</v>
       </c>
       <c r="K7">
-        <v>1.024699539430229</v>
+        <v>1.044910410010646</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.044066635824734</v>
       </c>
       <c r="M7">
-        <v>1.016301861268073</v>
+        <v>1.05310761844573</v>
       </c>
       <c r="N7">
-        <v>1.009128601242521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015168382481679</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050603438607948</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042844084769133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9902050606642188</v>
+        <v>1.010231735844865</v>
       </c>
       <c r="D8">
-        <v>1.010847790199477</v>
+        <v>1.031552465182104</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.030187215085949</v>
       </c>
       <c r="F8">
-        <v>0.9997836995440678</v>
+        <v>1.039638965669538</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041791746841923</v>
+        <v>1.048857145545759</v>
       </c>
       <c r="J8">
-        <v>1.012101259542545</v>
+        <v>1.031547243851429</v>
       </c>
       <c r="K8">
-        <v>1.021882799137345</v>
+        <v>1.042321349017867</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.040973236036146</v>
       </c>
       <c r="M8">
-        <v>1.010966601553873</v>
+        <v>1.05030749309441</v>
       </c>
       <c r="N8">
-        <v>1.008164637320272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014023077011502</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048387354342581</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041017975252458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9803953955127195</v>
+        <v>0.9999435863420271</v>
       </c>
       <c r="D9">
-        <v>1.003581060773555</v>
+        <v>1.024818505714576</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.022573036541322</v>
       </c>
       <c r="F9">
-        <v>0.9877706844006452</v>
+        <v>1.032572508318732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038833013864096</v>
+        <v>1.046864785876684</v>
       </c>
       <c r="J9">
-        <v>1.006659957099191</v>
+        <v>1.025498336878135</v>
       </c>
       <c r="K9">
-        <v>1.016616303730884</v>
+        <v>1.037521356035212</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.035310198444557</v>
       </c>
       <c r="M9">
-        <v>1.001065339627685</v>
+        <v>1.045158334526713</v>
       </c>
       <c r="N9">
-        <v>1.006372493632545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011899874230346</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044312173287068</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037620900878404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9735187285649475</v>
+        <v>0.9928482893539686</v>
       </c>
       <c r="D10">
-        <v>0.9984882823838325</v>
+        <v>1.02022468394169</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.017434078571454</v>
       </c>
       <c r="F10">
-        <v>0.9793400124092753</v>
+        <v>1.027810793182597</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036679833908324</v>
+        <v>1.045469313228824</v>
       </c>
       <c r="J10">
-        <v>1.002823878504082</v>
+        <v>1.021348556790315</v>
       </c>
       <c r="K10">
-        <v>1.012884885107852</v>
+        <v>1.034238130953914</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.031495531868042</v>
       </c>
       <c r="M10">
-        <v>0.9940925847937582</v>
+        <v>1.041695436768991</v>
       </c>
       <c r="N10">
-        <v>1.005109185706609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010450827009024</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041622773997137</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035316255688614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9704533196733612</v>
+        <v>0.9902873853587667</v>
       </c>
       <c r="D11">
-        <v>0.9962192317680457</v>
+        <v>1.018754451294957</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.015999916529464</v>
       </c>
       <c r="F11">
-        <v>0.9755786929119971</v>
+        <v>1.026618707175187</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035701956239381</v>
+        <v>1.045146792472865</v>
       </c>
       <c r="J11">
-        <v>1.001109113276337</v>
+        <v>1.020069877943365</v>
       </c>
       <c r="K11">
-        <v>1.011212801794636</v>
+        <v>1.033331145793374</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.030626276689545</v>
       </c>
       <c r="M11">
-        <v>0.9909763377512265</v>
+        <v>1.041055506492727</v>
       </c>
       <c r="N11">
-        <v>1.004544522002949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010078184856139</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041551010109776</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03470782878836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9693007816673611</v>
+        <v>0.9895434387235221</v>
       </c>
       <c r="D12">
-        <v>0.995366359284757</v>
+        <v>1.018407978626844</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.015775166573467</v>
       </c>
       <c r="F12">
-        <v>0.9741639391637952</v>
+        <v>1.026508960017247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035331640233506</v>
+        <v>1.045137669326387</v>
       </c>
       <c r="J12">
-        <v>1.00046371126638</v>
+        <v>1.019797027910448</v>
       </c>
       <c r="K12">
-        <v>1.010582874234557</v>
+        <v>1.033190808762338</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.030606253884624</v>
       </c>
       <c r="M12">
-        <v>0.989803440339777</v>
+        <v>1.041145322603876</v>
       </c>
       <c r="N12">
-        <v>1.004332002672464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010042072098272</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041947373437761</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03460860590347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.969548646559556</v>
+        <v>0.9901709837803009</v>
       </c>
       <c r="D13">
-        <v>0.9955497655788641</v>
+        <v>1.018925605328324</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.016483174815246</v>
       </c>
       <c r="F13">
-        <v>0.9744682232478167</v>
+        <v>1.027248551562963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035411399225406</v>
+        <v>1.045384721876066</v>
       </c>
       <c r="J13">
-        <v>1.000602541702043</v>
+        <v>1.020303063792582</v>
       </c>
       <c r="K13">
-        <v>1.010718402241037</v>
+        <v>1.033656138041553</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.031258255530131</v>
       </c>
       <c r="M13">
-        <v>0.990055740711456</v>
+        <v>1.041829345210848</v>
       </c>
       <c r="N13">
-        <v>1.004377716652726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010273087278097</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042764040562447</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034935115930131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.970358338618925</v>
+        <v>0.9912330684692208</v>
       </c>
       <c r="D14">
-        <v>0.9961489407386059</v>
+        <v>1.01968124116414</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.017400935853814</v>
       </c>
       <c r="F14">
-        <v>0.9754621146023114</v>
+        <v>1.028151546248715</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035671491905044</v>
+        <v>1.045674144333784</v>
       </c>
       <c r="J14">
-        <v>1.001055939127576</v>
+        <v>1.021011347958451</v>
       </c>
       <c r="K14">
-        <v>1.011160914410048</v>
+        <v>1.034257798728255</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.032018539951737</v>
       </c>
       <c r="M14">
-        <v>0.9908797044370904</v>
+        <v>1.042577700614456</v>
       </c>
       <c r="N14">
-        <v>1.004527012530549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010556453573352</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043528431729914</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035361934553909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9708553510863468</v>
+        <v>0.9917960982594193</v>
       </c>
       <c r="D15">
-        <v>0.9965167670035403</v>
+        <v>1.020061418774465</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.017837807071073</v>
       </c>
       <c r="F15">
-        <v>0.9760721165799404</v>
+        <v>1.028569351043888</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035830796560474</v>
+        <v>1.045804759772863</v>
       </c>
       <c r="J15">
-        <v>1.001334158782052</v>
+        <v>1.021361015593803</v>
       </c>
       <c r="K15">
-        <v>1.011432377528161</v>
+        <v>1.034544786523272</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.032360886171468</v>
       </c>
       <c r="M15">
-        <v>0.9913853117628363</v>
+        <v>1.042902828806163</v>
       </c>
       <c r="N15">
-        <v>1.004618626556686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010686892650299</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043822849119285</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035570713715049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9737202600044786</v>
+        <v>0.9946855436179228</v>
       </c>
       <c r="D16">
-        <v>0.9986374886304993</v>
+        <v>1.021913617540703</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.019884163758254</v>
       </c>
       <c r="F16">
-        <v>0.9795872220779749</v>
+        <v>1.030467510771817</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036743752324535</v>
+        <v>1.04636534521136</v>
       </c>
       <c r="J16">
-        <v>1.002936517285555</v>
+        <v>1.023034147579055</v>
       </c>
       <c r="K16">
-        <v>1.012994637069603</v>
+        <v>1.035862624473785</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.033867798822759</v>
       </c>
       <c r="M16">
-        <v>0.9942972883204269</v>
+        <v>1.04427249541769</v>
       </c>
       <c r="N16">
-        <v>1.005146278190444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011260676682157</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044866830899669</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036505633224384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.975493349944019</v>
+        <v>0.9963463935339613</v>
       </c>
       <c r="D17">
-        <v>0.999950357620158</v>
+        <v>1.022939481322466</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.020973531833908</v>
       </c>
       <c r="F17">
-        <v>0.9817618208051095</v>
+        <v>1.031447370022111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037304064938148</v>
+        <v>1.046641039981654</v>
       </c>
       <c r="J17">
-        <v>1.003926985099109</v>
+        <v>1.023945702113713</v>
       </c>
       <c r="K17">
-        <v>1.01395925730317</v>
+        <v>1.036556907871312</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.034623548055667</v>
       </c>
       <c r="M17">
-        <v>0.996097371151306</v>
+        <v>1.044925599559045</v>
       </c>
       <c r="N17">
-        <v>1.005472449471625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011552001218667</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04525444831873</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036999100377797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765191465838045</v>
+        <v>0.9970942415927877</v>
       </c>
       <c r="D18">
-        <v>1.000710004192999</v>
+        <v>1.023328707997161</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.021308195124241</v>
       </c>
       <c r="F18">
-        <v>0.9830196091520502</v>
+        <v>1.031688845384333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037626509839372</v>
+        <v>1.04668680332158</v>
       </c>
       <c r="J18">
-        <v>1.004499553109961</v>
+        <v>1.024267476231273</v>
       </c>
       <c r="K18">
-        <v>1.014516493283932</v>
+        <v>1.03675655136415</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.034768985775387</v>
       </c>
       <c r="M18">
-        <v>0.9971380280787172</v>
+        <v>1.04498212294801</v>
       </c>
       <c r="N18">
-        <v>1.005661006445864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011618300705345</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045062330712491</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037128630128782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9768675102090525</v>
+        <v>0.9970442685011169</v>
       </c>
       <c r="D19">
-        <v>1.000967997956548</v>
+        <v>1.023171584771123</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.020977808992708</v>
       </c>
       <c r="F19">
-        <v>0.9834467102158263</v>
+        <v>1.031281155027497</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037735720194246</v>
+        <v>1.046542477643051</v>
       </c>
       <c r="J19">
-        <v>1.004693921035659</v>
+        <v>1.024084123473456</v>
       </c>
       <c r="K19">
-        <v>1.01470558955058</v>
+        <v>1.036539518944928</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.034381346725043</v>
       </c>
       <c r="M19">
-        <v>0.9974913112493626</v>
+        <v>1.044519160495017</v>
       </c>
       <c r="N19">
-        <v>1.005725016022704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011498754282147</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044372125400886</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036981570602348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9753039898125045</v>
+        <v>0.994730780223464</v>
       </c>
       <c r="D20">
-        <v>0.9998101362006637</v>
+        <v>1.021458684991131</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.018794607799295</v>
       </c>
       <c r="F20">
-        <v>0.9815296121444969</v>
+        <v>1.029076658066226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037244403054282</v>
+        <v>1.045857401277381</v>
       </c>
       <c r="J20">
-        <v>1.003821253231996</v>
+        <v>1.022466343511728</v>
       </c>
       <c r="K20">
-        <v>1.013856324956262</v>
+        <v>1.03513441975415</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.03251483571507</v>
       </c>
       <c r="M20">
-        <v>0.995905207008483</v>
+        <v>1.04262679772223</v>
       </c>
       <c r="N20">
-        <v>1.005437630408917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010847696671999</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042349336071646</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035992036624627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9701202945032699</v>
+        <v>0.9892804594203485</v>
       </c>
       <c r="D21">
-        <v>0.9959727797174032</v>
+        <v>1.01790360057726</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.014793135420998</v>
       </c>
       <c r="F21">
-        <v>0.9751699334264772</v>
+        <v>1.025336895207509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035595098854812</v>
+        <v>1.044732393517585</v>
       </c>
       <c r="J21">
-        <v>1.000922661760986</v>
+        <v>1.019233299131439</v>
       </c>
       <c r="K21">
-        <v>1.011030852816726</v>
+        <v>1.032553541118868</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.029499564486434</v>
       </c>
       <c r="M21">
-        <v>0.9906374991743001</v>
+        <v>1.039853642399183</v>
       </c>
       <c r="N21">
-        <v>1.004483126374464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009704473091898</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040113875068419</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034170496438876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9667802313115942</v>
+        <v>0.9857969088488689</v>
       </c>
       <c r="D22">
-        <v>0.9935017092221781</v>
+        <v>1.015642664100607</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.012275793987484</v>
       </c>
       <c r="F22">
-        <v>0.9710687900213703</v>
+        <v>1.022989397302232</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034516966701957</v>
+        <v>1.044010417918683</v>
       </c>
       <c r="J22">
-        <v>0.9990510295715828</v>
+        <v>1.017173400111775</v>
       </c>
       <c r="K22">
-        <v>1.009203007117925</v>
+        <v>1.03091047812295</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.027607925456152</v>
       </c>
       <c r="M22">
-        <v>0.987236023906594</v>
+        <v>1.038118784474296</v>
       </c>
       <c r="N22">
-        <v>1.003866848622028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008977385160271</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038740849291946</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032995262811966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9685587826654387</v>
+        <v>0.9876360362342543</v>
       </c>
       <c r="D23">
-        <v>0.9948173636449336</v>
+        <v>1.016829771389065</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.013603442917419</v>
       </c>
       <c r="F23">
-        <v>0.9732529556865127</v>
+        <v>1.024226581338574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035092492877558</v>
+        <v>1.044387566211753</v>
       </c>
       <c r="J23">
-        <v>1.000048016459436</v>
+        <v>1.018255504190655</v>
       </c>
       <c r="K23">
-        <v>1.010176983321131</v>
+        <v>1.031769773838959</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.028603460432952</v>
       </c>
       <c r="M23">
-        <v>0.9890479774610011</v>
+        <v>1.039030847576562</v>
       </c>
       <c r="N23">
-        <v>1.004195124322678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00935708357206</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039462687489232</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033593174617684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9753895794624668</v>
+        <v>0.9947419824090671</v>
       </c>
       <c r="D24">
-        <v>0.9998735151278916</v>
+        <v>1.021440008807255</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.018763747834683</v>
       </c>
       <c r="F24">
-        <v>0.9816345699842296</v>
+        <v>1.029032243995615</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03727137519638</v>
+        <v>1.045834443645371</v>
       </c>
       <c r="J24">
-        <v>1.00386904481386</v>
+        <v>1.022443948638848</v>
       </c>
       <c r="K24">
-        <v>1.01390285234647</v>
+        <v>1.035100792178524</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.032469173340433</v>
       </c>
       <c r="M24">
-        <v>0.9959920663962116</v>
+        <v>1.042568006930121</v>
       </c>
       <c r="N24">
-        <v>1.005453368867843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010830028283117</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042262110555981</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035940859644642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.982988313645066</v>
+        <v>1.002680690990146</v>
       </c>
       <c r="D25">
-        <v>1.005501875652023</v>
+        <v>1.026615656728738</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.024587471033561</v>
       </c>
       <c r="F25">
-        <v>0.9909473325239658</v>
+        <v>1.034446066479271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039628917147572</v>
+        <v>1.047411414857052</v>
       </c>
       <c r="J25">
-        <v>1.008102072272621</v>
+        <v>1.027118174755124</v>
       </c>
       <c r="K25">
-        <v>1.018015378290281</v>
+        <v>1.038814385593164</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.036815722350257</v>
       </c>
       <c r="M25">
-        <v>1.003687824069655</v>
+        <v>1.046532189671038</v>
       </c>
       <c r="N25">
-        <v>1.006847448172613</v>
+        <v>1.012472294121775</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045399481000876</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038563693563953</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008746072996061</v>
+        <v>1.008123592430272</v>
       </c>
       <c r="D2">
-        <v>1.03057040252101</v>
+        <v>1.029520238759594</v>
       </c>
       <c r="E2">
-        <v>1.029081601901515</v>
+        <v>1.028651951095623</v>
       </c>
       <c r="F2">
-        <v>1.038612408717086</v>
+        <v>1.037990153274156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048569191780943</v>
+        <v>1.048164363088407</v>
       </c>
       <c r="J2">
-        <v>1.030668300703475</v>
+        <v>1.030064013689356</v>
       </c>
       <c r="K2">
-        <v>1.041619658660785</v>
+        <v>1.040583076392485</v>
       </c>
       <c r="L2">
-        <v>1.040150122581787</v>
+        <v>1.039726044280275</v>
       </c>
       <c r="M2">
-        <v>1.049558796490246</v>
+        <v>1.048944429511169</v>
       </c>
       <c r="N2">
-        <v>1.013712475142573</v>
+        <v>1.014891032558742</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047794817334094</v>
+        <v>1.047308591758656</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040498985781311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039774788433623</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022735608936322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01305312930816</v>
+        <v>1.012173373149851</v>
       </c>
       <c r="D3">
-        <v>1.03339702141658</v>
+        <v>1.032090812366392</v>
       </c>
       <c r="E3">
-        <v>1.032295743249835</v>
+        <v>1.031723223525287</v>
       </c>
       <c r="F3">
-        <v>1.041589960709159</v>
+        <v>1.040793627630521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049379195352903</v>
+        <v>1.048860022195683</v>
       </c>
       <c r="J3">
-        <v>1.03319416909167</v>
+        <v>1.032337592563614</v>
       </c>
       <c r="K3">
-        <v>1.043619695581803</v>
+        <v>1.042328912187235</v>
       </c>
       <c r="L3">
-        <v>1.042531419744711</v>
+        <v>1.041965673105011</v>
       </c>
       <c r="M3">
-        <v>1.051716970946083</v>
+        <v>1.050929854492676</v>
       </c>
       <c r="N3">
-        <v>1.014597298105767</v>
+        <v>1.015521508439469</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049502848688622</v>
+        <v>1.04887990618446</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04191052226532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04100630509294</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023110989485872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015787887347395</v>
+        <v>1.014746875217911</v>
       </c>
       <c r="D4">
-        <v>1.035195772848951</v>
+        <v>1.033728282594688</v>
       </c>
       <c r="E4">
-        <v>1.034346943505686</v>
+        <v>1.033685025467519</v>
       </c>
       <c r="F4">
-        <v>1.043488283866844</v>
+        <v>1.042582596138731</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049884158972388</v>
+        <v>1.049292928458094</v>
       </c>
       <c r="J4">
-        <v>1.034796181397022</v>
+        <v>1.033780731667213</v>
       </c>
       <c r="K4">
-        <v>1.044887191933949</v>
+        <v>1.043435990397934</v>
       </c>
       <c r="L4">
-        <v>1.04404777742052</v>
+        <v>1.043393214275588</v>
       </c>
       <c r="M4">
-        <v>1.05308871504227</v>
+        <v>1.052192878375354</v>
       </c>
       <c r="N4">
-        <v>1.015158097172966</v>
+        <v>1.015921544593336</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050588478037301</v>
+        <v>1.049879492786753</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04280763868675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041790073811823</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023346595383352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016930078368694</v>
+        <v>1.015822098407568</v>
       </c>
       <c r="D5">
-        <v>1.035949888859717</v>
+        <v>1.03441531869726</v>
       </c>
       <c r="E5">
-        <v>1.035205808719457</v>
+        <v>1.034506788935226</v>
       </c>
       <c r="F5">
-        <v>1.044283196764202</v>
+        <v>1.043332058335002</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050094392040054</v>
+        <v>1.049473154294907</v>
       </c>
       <c r="J5">
-        <v>1.035466599336649</v>
+        <v>1.034385009050701</v>
       </c>
       <c r="K5">
-        <v>1.045418736843156</v>
+        <v>1.043900747952238</v>
       </c>
       <c r="L5">
-        <v>1.044682689077775</v>
+        <v>1.043991228149107</v>
       </c>
       <c r="M5">
-        <v>1.053663043148445</v>
+        <v>1.052721975137518</v>
       </c>
       <c r="N5">
-        <v>1.015393280098066</v>
+        <v>1.016089456382792</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051043013840917</v>
+        <v>1.050298231924413</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043190623233892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04212654517611</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023445462640633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017126735405917</v>
+        <v>1.016007134121985</v>
       </c>
       <c r="D6">
-        <v>1.03608214564996</v>
+        <v>1.034536018360676</v>
       </c>
       <c r="E6">
-        <v>1.035353503245174</v>
+        <v>1.034648027773191</v>
       </c>
       <c r="F6">
-        <v>1.044420486959655</v>
+        <v>1.043461477790252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050132425153071</v>
+        <v>1.049505979145765</v>
       </c>
       <c r="J6">
-        <v>1.035584173108623</v>
+        <v>1.034491100332039</v>
       </c>
       <c r="K6">
-        <v>1.045513605439161</v>
+        <v>1.043984107954718</v>
       </c>
       <c r="L6">
-        <v>1.044792792568127</v>
+        <v>1.044094910571786</v>
       </c>
       <c r="M6">
-        <v>1.053763299434077</v>
+        <v>1.05281439758261</v>
       </c>
       <c r="N6">
-        <v>1.015435245850034</v>
+        <v>1.016119477723372</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051122358826155</v>
+        <v>1.050371377112545</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043266409370503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042195062897003</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023463829619082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015818235969069</v>
+        <v>1.014786497082958</v>
       </c>
       <c r="D7">
-        <v>1.035222148356591</v>
+        <v>1.0337605954698</v>
       </c>
       <c r="E7">
-        <v>1.034368914179417</v>
+        <v>1.033711307399824</v>
       </c>
       <c r="F7">
-        <v>1.043510260996863</v>
+        <v>1.042609309655135</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049895067178106</v>
+        <v>1.049306738610159</v>
       </c>
       <c r="J7">
-        <v>1.03481983988953</v>
+        <v>1.033813424111057</v>
       </c>
       <c r="K7">
-        <v>1.044910410010646</v>
+        <v>1.043465073404692</v>
       </c>
       <c r="L7">
-        <v>1.044066635824734</v>
+        <v>1.043416333180849</v>
       </c>
       <c r="M7">
-        <v>1.05310761844573</v>
+        <v>1.052216462830706</v>
       </c>
       <c r="N7">
-        <v>1.015168382481679</v>
+        <v>1.015958538177054</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050603438607948</v>
+        <v>1.049898158062843</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042844084769133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041832666059974</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023355470953238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010231735844865</v>
+        <v>1.009554736961794</v>
       </c>
       <c r="D8">
-        <v>1.031552465182104</v>
+        <v>1.030437842208368</v>
       </c>
       <c r="E8">
-        <v>1.030187215085949</v>
+        <v>1.029725112759463</v>
       </c>
       <c r="F8">
-        <v>1.039638965669538</v>
+        <v>1.03897523496026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048857145545759</v>
+        <v>1.048424564021892</v>
       </c>
       <c r="J8">
-        <v>1.031547243851429</v>
+        <v>1.030889361023698</v>
       </c>
       <c r="K8">
-        <v>1.042321349017867</v>
+        <v>1.04122071295191</v>
       </c>
       <c r="L8">
-        <v>1.040973236036146</v>
+        <v>1.040516947025791</v>
       </c>
       <c r="M8">
-        <v>1.05030749309441</v>
+        <v>1.049651926294293</v>
       </c>
       <c r="N8">
-        <v>1.014023077011502</v>
+        <v>1.015202442757909</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048387354342581</v>
+        <v>1.047868522589958</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041017975252458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040250751417763</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022878236038403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9999435863420271</v>
+        <v>0.9999002734467843</v>
       </c>
       <c r="D9">
-        <v>1.024818505714576</v>
+        <v>1.024327659229447</v>
       </c>
       <c r="E9">
-        <v>1.022573036541322</v>
+        <v>1.022463901120163</v>
       </c>
       <c r="F9">
-        <v>1.032572508318732</v>
+        <v>1.03233537391451</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046864785876684</v>
+        <v>1.046710922745909</v>
       </c>
       <c r="J9">
-        <v>1.025498336878135</v>
+        <v>1.025456553807156</v>
       </c>
       <c r="K9">
-        <v>1.037521356035212</v>
+        <v>1.037037993479272</v>
       </c>
       <c r="L9">
-        <v>1.035310198444557</v>
+        <v>1.035202735551774</v>
       </c>
       <c r="M9">
-        <v>1.045158334526713</v>
+        <v>1.044924745820978</v>
       </c>
       <c r="N9">
-        <v>1.011899874230346</v>
+        <v>1.013703607877575</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044312173287068</v>
+        <v>1.044127304435748</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037620900878404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037289860436401</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021963772431807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9928482893539686</v>
+        <v>0.9933020441080703</v>
       </c>
       <c r="D10">
-        <v>1.02022468394169</v>
+        <v>1.020203587658704</v>
       </c>
       <c r="E10">
-        <v>1.017434078571454</v>
+        <v>1.017598805976109</v>
       </c>
       <c r="F10">
-        <v>1.027810793182597</v>
+        <v>1.027900026469409</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045469313228824</v>
+        <v>1.04552612819661</v>
       </c>
       <c r="J10">
-        <v>1.021348556790315</v>
+        <v>1.021783950472835</v>
       </c>
       <c r="K10">
-        <v>1.034238130953914</v>
+        <v>1.034217396313275</v>
       </c>
       <c r="L10">
-        <v>1.031495531868042</v>
+        <v>1.031657416039178</v>
       </c>
       <c r="M10">
-        <v>1.041695436768991</v>
+        <v>1.041783169565328</v>
       </c>
       <c r="N10">
-        <v>1.010450827009024</v>
+        <v>1.012810316587037</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041622773997137</v>
+        <v>1.041692204216509</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035316255688614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035314005998256</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021345514526619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9902873853587667</v>
+        <v>0.9909610344663607</v>
       </c>
       <c r="D11">
-        <v>1.018754451294957</v>
+        <v>1.018922191348967</v>
       </c>
       <c r="E11">
-        <v>1.015999916529464</v>
+        <v>1.016267311922586</v>
       </c>
       <c r="F11">
-        <v>1.026618707175187</v>
+        <v>1.02683955563446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045146792472865</v>
+        <v>1.045284022728965</v>
       </c>
       <c r="J11">
-        <v>1.020069877943365</v>
+        <v>1.020714740307781</v>
       </c>
       <c r="K11">
-        <v>1.033331145793374</v>
+        <v>1.03349587267906</v>
       </c>
       <c r="L11">
-        <v>1.030626276689545</v>
+        <v>1.030888835465348</v>
       </c>
       <c r="M11">
-        <v>1.041055506492727</v>
+        <v>1.041272466435071</v>
       </c>
       <c r="N11">
-        <v>1.010078184856139</v>
+        <v>1.01280071057733</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041551010109776</v>
+        <v>1.041722622779594</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03470782878836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03483991503369</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021242851608633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9895434387235221</v>
+        <v>0.9902733768883892</v>
       </c>
       <c r="D12">
-        <v>1.018407978626844</v>
+        <v>1.018620315144231</v>
       </c>
       <c r="E12">
-        <v>1.015775166573467</v>
+        <v>1.016058061805902</v>
       </c>
       <c r="F12">
-        <v>1.026508960017247</v>
+        <v>1.026758915895619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045137669326387</v>
+        <v>1.045290111179934</v>
       </c>
       <c r="J12">
-        <v>1.019797027910448</v>
+        <v>1.020495166639735</v>
       </c>
       <c r="K12">
-        <v>1.033190808762338</v>
+        <v>1.033399267485176</v>
       </c>
       <c r="L12">
-        <v>1.030606253884624</v>
+        <v>1.030883948268714</v>
       </c>
       <c r="M12">
-        <v>1.041145322603876</v>
+        <v>1.041390806957923</v>
       </c>
       <c r="N12">
-        <v>1.010042072098272</v>
+        <v>1.012884113030531</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041947373437761</v>
+        <v>1.042141483288656</v>
       </c>
       <c r="Q12">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R12">
-        <v>1.03460860590347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034771613445753</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02126171966305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9901709837803009</v>
+        <v>0.9908148734509006</v>
       </c>
       <c r="D13">
-        <v>1.018925605328324</v>
+        <v>1.019059951577516</v>
       </c>
       <c r="E13">
-        <v>1.016483174815246</v>
+        <v>1.016706261189686</v>
       </c>
       <c r="F13">
-        <v>1.027248551562963</v>
+        <v>1.027439726746016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045384721876066</v>
+        <v>1.04549639473389</v>
       </c>
       <c r="J13">
-        <v>1.020303063792582</v>
+        <v>1.020919052667546</v>
       </c>
       <c r="K13">
-        <v>1.033656138041553</v>
+        <v>1.033788041982724</v>
       </c>
       <c r="L13">
-        <v>1.031258255530131</v>
+        <v>1.031477261421432</v>
       </c>
       <c r="M13">
-        <v>1.041829345210848</v>
+        <v>1.042017117931996</v>
       </c>
       <c r="N13">
-        <v>1.010273087278097</v>
+        <v>1.013013017891123</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042764040562447</v>
+        <v>1.042912479477806</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034935115930131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035043749363813</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021379977467835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9912330684692208</v>
+        <v>0.9917528992314228</v>
       </c>
       <c r="D14">
-        <v>1.01968124116414</v>
+        <v>1.019706214428677</v>
       </c>
       <c r="E14">
-        <v>1.017400935853814</v>
+        <v>1.017549599975153</v>
       </c>
       <c r="F14">
-        <v>1.028151546248715</v>
+        <v>1.028262624452917</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045674144333784</v>
+        <v>1.045732589294627</v>
       </c>
       <c r="J14">
-        <v>1.021011347958451</v>
+        <v>1.021508988748139</v>
       </c>
       <c r="K14">
-        <v>1.034257798728255</v>
+        <v>1.034282323782969</v>
       </c>
       <c r="L14">
-        <v>1.032018539951737</v>
+        <v>1.032164520763486</v>
       </c>
       <c r="M14">
-        <v>1.042577700614456</v>
+        <v>1.042686827787453</v>
       </c>
       <c r="N14">
-        <v>1.010556453573352</v>
+        <v>1.013125950043926</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043528431729914</v>
+        <v>1.043614687840099</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035361934553909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035394778320009</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021508669997773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9917960982594193</v>
+        <v>0.9922553393775243</v>
       </c>
       <c r="D15">
-        <v>1.020061418774465</v>
+        <v>1.020033503560282</v>
       </c>
       <c r="E15">
-        <v>1.017837807071073</v>
+        <v>1.017952735340709</v>
       </c>
       <c r="F15">
-        <v>1.028569351043888</v>
+        <v>1.028642261887022</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045804759772863</v>
+        <v>1.045838395759287</v>
       </c>
       <c r="J15">
-        <v>1.021361015593803</v>
+        <v>1.021800829695215</v>
       </c>
       <c r="K15">
-        <v>1.034544786523272</v>
+        <v>1.034517368452356</v>
       </c>
       <c r="L15">
-        <v>1.032360886171468</v>
+        <v>1.032473756421638</v>
       </c>
       <c r="M15">
-        <v>1.042902828806163</v>
+        <v>1.042974469004017</v>
       </c>
       <c r="N15">
-        <v>1.010686892650299</v>
+        <v>1.013169049229492</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043822849119285</v>
+        <v>1.043879473357981</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035570713715049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035567397843641</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021564651342428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9946855436179228</v>
+        <v>0.9948701839839714</v>
       </c>
       <c r="D16">
-        <v>1.021913617540703</v>
+        <v>1.021645643419717</v>
       </c>
       <c r="E16">
-        <v>1.019884163758254</v>
+        <v>1.019857177164062</v>
       </c>
       <c r="F16">
-        <v>1.030467510771817</v>
+        <v>1.030370517863959</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04636534521136</v>
+        <v>1.046291100056656</v>
       </c>
       <c r="J16">
-        <v>1.023034147579055</v>
+        <v>1.02321137657927</v>
       </c>
       <c r="K16">
-        <v>1.035862624473785</v>
+        <v>1.035599212556649</v>
       </c>
       <c r="L16">
-        <v>1.033867798822759</v>
+        <v>1.033841273894644</v>
       </c>
       <c r="M16">
-        <v>1.04427249541769</v>
+        <v>1.044177118317748</v>
       </c>
       <c r="N16">
-        <v>1.011260676682157</v>
+        <v>1.013339180010058</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044866830899669</v>
+        <v>1.04479144291411</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036505633224384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036335755694908</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021793982808907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9963463935339613</v>
+        <v>0.9963995184357144</v>
       </c>
       <c r="D17">
-        <v>1.022939481322466</v>
+        <v>1.022554332785688</v>
       </c>
       <c r="E17">
-        <v>1.020973531833908</v>
+        <v>1.020882469471083</v>
       </c>
       <c r="F17">
-        <v>1.031447370022111</v>
+        <v>1.031269241556888</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046641039981654</v>
+        <v>1.046516247123298</v>
       </c>
       <c r="J17">
-        <v>1.023945702113713</v>
+        <v>1.023996764445066</v>
       </c>
       <c r="K17">
-        <v>1.036556907871312</v>
+        <v>1.036178131262331</v>
       </c>
       <c r="L17">
-        <v>1.034623548055667</v>
+        <v>1.034533999156529</v>
       </c>
       <c r="M17">
-        <v>1.044925599559045</v>
+        <v>1.044750355217564</v>
       </c>
       <c r="N17">
-        <v>1.011552001218667</v>
+        <v>1.013441489984678</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04525444831873</v>
+        <v>1.045115917913837</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036999100377797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036747900919442</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021904257885587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9970942415927877</v>
+        <v>0.997110737301548</v>
       </c>
       <c r="D18">
-        <v>1.023328707997161</v>
+        <v>1.022910328340672</v>
       </c>
       <c r="E18">
-        <v>1.021308195124241</v>
+        <v>1.021206212315007</v>
       </c>
       <c r="F18">
-        <v>1.031688845384333</v>
+        <v>1.031489827047202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04668680332158</v>
+        <v>1.046550885134066</v>
       </c>
       <c r="J18">
-        <v>1.024267476231273</v>
+        <v>1.024283343633063</v>
       </c>
       <c r="K18">
-        <v>1.03675655136415</v>
+        <v>1.036344980244352</v>
       </c>
       <c r="L18">
-        <v>1.034768985775387</v>
+        <v>1.034668670380929</v>
       </c>
       <c r="M18">
-        <v>1.04498212294801</v>
+        <v>1.044786275551616</v>
       </c>
       <c r="N18">
-        <v>1.011618300705345</v>
+        <v>1.01344757560422</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045062330712491</v>
+        <v>1.04490748156783</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037128630128782</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036853110637612</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021911673964062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9970442685011169</v>
+        <v>0.9970964491160416</v>
       </c>
       <c r="D19">
-        <v>1.023171584771123</v>
+        <v>1.02278605680468</v>
       </c>
       <c r="E19">
-        <v>1.020977808992708</v>
+        <v>1.02090581364746</v>
       </c>
       <c r="F19">
-        <v>1.031281155027497</v>
+        <v>1.031108055126488</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046542477643051</v>
+        <v>1.046426046860664</v>
       </c>
       <c r="J19">
-        <v>1.024084123473456</v>
+        <v>1.024134328028272</v>
       </c>
       <c r="K19">
-        <v>1.036539518944928</v>
+        <v>1.036160233643973</v>
       </c>
       <c r="L19">
-        <v>1.034381346725043</v>
+        <v>1.034310523148991</v>
       </c>
       <c r="M19">
-        <v>1.044519160495017</v>
+        <v>1.044348806596042</v>
       </c>
       <c r="N19">
-        <v>1.011498754282147</v>
+        <v>1.013357217242336</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044372125400886</v>
+        <v>1.044237389344972</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036981570602348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03672950272936</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021834486628979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.994730780223464</v>
+        <v>0.9950180839255249</v>
       </c>
       <c r="D20">
-        <v>1.021458684991131</v>
+        <v>1.021288926902888</v>
       </c>
       <c r="E20">
-        <v>1.018794607799295</v>
+        <v>1.018867981034804</v>
       </c>
       <c r="F20">
-        <v>1.029076658066226</v>
+        <v>1.029059873028145</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045857401277381</v>
+        <v>1.045845935986038</v>
       </c>
       <c r="J20">
-        <v>1.022466343511728</v>
+        <v>1.022742410144988</v>
       </c>
       <c r="K20">
-        <v>1.03513441975415</v>
+        <v>1.034967487902179</v>
       </c>
       <c r="L20">
-        <v>1.03251483571507</v>
+        <v>1.032586979516917</v>
       </c>
       <c r="M20">
-        <v>1.04262679772223</v>
+        <v>1.042610286786705</v>
       </c>
       <c r="N20">
-        <v>1.010847696671999</v>
+        <v>1.012978092897136</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042349336071646</v>
+        <v>1.042336269448608</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035992036624627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035890504527436</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021513216575352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892804594203485</v>
+        <v>0.9901205750158134</v>
       </c>
       <c r="D21">
-        <v>1.01790360057726</v>
+        <v>1.018217588145967</v>
       </c>
       <c r="E21">
-        <v>1.014793135420998</v>
+        <v>1.015172207020283</v>
       </c>
       <c r="F21">
-        <v>1.025336895207509</v>
+        <v>1.025668737805684</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044732393517585</v>
+        <v>1.044945349722616</v>
       </c>
       <c r="J21">
-        <v>1.019233299131439</v>
+        <v>1.020037237938433</v>
       </c>
       <c r="K21">
-        <v>1.032553541118868</v>
+        <v>1.03286185135877</v>
       </c>
       <c r="L21">
-        <v>1.029499564486434</v>
+        <v>1.029871727738492</v>
       </c>
       <c r="M21">
-        <v>1.039853642399183</v>
+        <v>1.040179597287257</v>
       </c>
       <c r="N21">
-        <v>1.009704473091898</v>
+        <v>1.012654084581306</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040113875068419</v>
+        <v>1.040371846599763</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034170496438876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034405313387837</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021050728030023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9857969088488689</v>
+        <v>0.9869901969225554</v>
       </c>
       <c r="D22">
-        <v>1.015642664100607</v>
+        <v>1.016266524053951</v>
       </c>
       <c r="E22">
-        <v>1.012275793987484</v>
+        <v>1.012853080244281</v>
       </c>
       <c r="F22">
-        <v>1.022989397302232</v>
+        <v>1.023545295480322</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044010417918683</v>
+        <v>1.044367585965506</v>
       </c>
       <c r="J22">
-        <v>1.017173400111775</v>
+        <v>1.018312217273199</v>
       </c>
       <c r="K22">
-        <v>1.03091047812295</v>
+        <v>1.031522481649872</v>
       </c>
       <c r="L22">
-        <v>1.027607925456152</v>
+        <v>1.028174144035662</v>
       </c>
       <c r="M22">
-        <v>1.038118784474296</v>
+        <v>1.038664313960126</v>
       </c>
       <c r="N22">
-        <v>1.008977385160271</v>
+        <v>1.01244162683862</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038740849291946</v>
+        <v>1.039172600230315</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032995262811966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033443515991056</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02075591263064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9876360362342543</v>
+        <v>0.988623786637237</v>
       </c>
       <c r="D23">
-        <v>1.016829771389065</v>
+        <v>1.017276002084598</v>
       </c>
       <c r="E23">
-        <v>1.013603442917419</v>
+        <v>1.014065364610454</v>
       </c>
       <c r="F23">
-        <v>1.024226581338574</v>
+        <v>1.024653168480632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044387566211753</v>
+        <v>1.044661566278302</v>
       </c>
       <c r="J23">
-        <v>1.018255504190655</v>
+        <v>1.019199527311743</v>
       </c>
       <c r="K23">
-        <v>1.031769773838959</v>
+        <v>1.032207742971294</v>
       </c>
       <c r="L23">
-        <v>1.028603460432952</v>
+        <v>1.029056759048345</v>
       </c>
       <c r="M23">
-        <v>1.039030847576562</v>
+        <v>1.039449684325261</v>
       </c>
       <c r="N23">
-        <v>1.00935708357206</v>
+        <v>1.012503800785624</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039462687489232</v>
+        <v>1.039794169095101</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033593174617684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03391743659197</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020903466802881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9947419824090671</v>
+        <v>0.9950322643114402</v>
       </c>
       <c r="D24">
-        <v>1.021440008807255</v>
+        <v>1.021272858609455</v>
       </c>
       <c r="E24">
-        <v>1.018763747834683</v>
+        <v>1.018840331149734</v>
       </c>
       <c r="F24">
-        <v>1.029032243995615</v>
+        <v>1.029017860844298</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045834443645371</v>
+        <v>1.045824936136419</v>
       </c>
       <c r="J24">
-        <v>1.022443948638848</v>
+        <v>1.022722893366719</v>
       </c>
       <c r="K24">
-        <v>1.035100792178524</v>
+        <v>1.034936421355082</v>
       </c>
       <c r="L24">
-        <v>1.032469173340433</v>
+        <v>1.032544474984773</v>
       </c>
       <c r="M24">
-        <v>1.042568006930121</v>
+        <v>1.042553858383145</v>
       </c>
       <c r="N24">
-        <v>1.010830028283117</v>
+        <v>1.012961793287559</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042262110555981</v>
+        <v>1.042250912956882</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035940859644642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035838473356739</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021499011946054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002680690990146</v>
+        <v>1.002451762179641</v>
       </c>
       <c r="D25">
-        <v>1.026615656728738</v>
+        <v>1.025947429959861</v>
       </c>
       <c r="E25">
-        <v>1.024587471033561</v>
+        <v>1.024375332078834</v>
       </c>
       <c r="F25">
-        <v>1.034446066479271</v>
+        <v>1.034086044018627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047411414857052</v>
+        <v>1.047177616882722</v>
       </c>
       <c r="J25">
-        <v>1.027118174755124</v>
+        <v>1.02689689553264</v>
       </c>
       <c r="K25">
-        <v>1.038814385593164</v>
+        <v>1.038155869241581</v>
       </c>
       <c r="L25">
-        <v>1.036815722350257</v>
+        <v>1.036606679877193</v>
       </c>
       <c r="M25">
-        <v>1.046532189671038</v>
+        <v>1.046177297208777</v>
       </c>
       <c r="N25">
-        <v>1.012472294121775</v>
+        <v>1.014072436874158</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045399481000876</v>
+        <v>1.045118609250328</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038563693563953</v>
+        <v>1.038111604369961</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022212160559909</v>
       </c>
     </row>
   </sheetData>
